--- a/hr-dataset.xlsx
+++ b/hr-dataset.xlsx
@@ -8,16 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arpitsharma/Desktop/ML/09_Udacity/06-Udacity_Data_Architect/Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7EDE4C-D146-DA4C-B70C-CD757042832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1882D-978E-1343-9260-A7E378ABFE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HR Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Normalized_Data" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet8" sheetId="10" r:id="rId3"/>
-    <sheet name="Key Assumptions" sheetId="11" r:id="rId4"/>
-    <sheet name="HR Data_Normalized" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HR Data'!$A$1:$O$206</definedName>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4216" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="653">
   <si>
     <t>EMP_ID</t>
   </si>
@@ -1999,183 +1995,6 @@
   </si>
   <si>
     <t>Anil Padala</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>Employees</t>
-  </si>
-  <si>
-    <t>Employee_Hist</t>
-  </si>
-  <si>
-    <t>Employee_ID</t>
-  </si>
-  <si>
-    <t>Start_DT</t>
-  </si>
-  <si>
-    <t>End_DT</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Manager_ID</t>
-  </si>
-  <si>
-    <t>Department_NM</t>
-  </si>
-  <si>
-    <t>Job_ID</t>
-  </si>
-  <si>
-    <t>Employee Location</t>
-  </si>
-  <si>
-    <t>Design Consideration</t>
-  </si>
-  <si>
-    <t>If you know address you may not know the city as address may be common across multiple cities</t>
-  </si>
-  <si>
-    <t>Address_ID</t>
-  </si>
-  <si>
-    <t>CITY_ID</t>
-  </si>
-  <si>
-    <t>City_ID</t>
-  </si>
-  <si>
-    <t>City Table</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Education_ID</t>
-  </si>
-  <si>
-    <t>Department_ID</t>
-  </si>
-  <si>
-    <t>City_Name</t>
-  </si>
-  <si>
-    <t>State_ID</t>
-  </si>
-  <si>
-    <t>State_Name</t>
-  </si>
-  <si>
-    <t>Location_ID</t>
-  </si>
-  <si>
-    <t>Location Name</t>
-  </si>
-  <si>
-    <t>S No</t>
-  </si>
-  <si>
-    <t>Assumptions</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>Department Change</t>
-  </si>
-  <si>
-    <t>Employee Table</t>
-  </si>
-  <si>
-    <t>Job Title Change</t>
-  </si>
-  <si>
-    <t>Manager Change</t>
-  </si>
-  <si>
-    <t>Should be part of Employee Hist Primary Key</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Address Change</t>
-  </si>
-  <si>
-    <t>Salary Change</t>
-  </si>
-  <si>
-    <t>Employee transferred to other address without changing all the other attributes</t>
-  </si>
-  <si>
-    <t>Employee received salary hike without change in designation.</t>
-  </si>
-  <si>
-    <t>State Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes </t>
-  </si>
-  <si>
-    <t>Primary Keys</t>
-  </si>
-  <si>
-    <t>Employee ID, Job Title, Address ID, Manager ID, Department ID, Salary ID</t>
-  </si>
-  <si>
-    <t>Employee ID, Start Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee can move to different manager keeping all the other attributes same. 
-For ex,
-Employee may get transferred from manager  "Tyrone Hutchison" to  "Allison Gentle" both of whom department is "Distribution". </t>
-  </si>
-  <si>
-    <t>Employee job title may change keeping all the other attributes same. 
-For Ex, 
-Employee may draw the same salary and be in same department even after changing the job title.</t>
-  </si>
-  <si>
-    <t>Employee Email wont change in its organization. Hence it would be kept in employee table.</t>
-  </si>
-  <si>
-    <t>Hire Date also is fixed and dependent on Employee table primary key. Hence it would be kept in employee table.</t>
-  </si>
-  <si>
-    <t>Employee ID - Based on this parameter we cannot alone identify unique row in "Employee History" table without combining "Employee id" key with other attributes. 
-For e.g., if employee manager change, then there would be 2 rows in "Employee History" table . Hence, for that scenario Employee_ID + Manager should be primary key</t>
-  </si>
-  <si>
-    <t>Start Date would change when employee department, job title , manager, address or salary changes.
-Latest Employee Id is in Employee table and Start date from Employee History table. End date is null.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee  department can change keeping all the other attribute same.  
-For e.g., 
-Product Development and IT department have same job title "Design Engineer" and "Network Engineer" . So, employee may change department without a change in manager, job title, Address ,salary attribute change
-</t>
   </si>
 </sst>
 </file>
@@ -2185,7 +2004,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2207,37 +2026,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2245,175 +2043,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2429,133 +2067,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71242BF-417C-5740-BAB4-0B234CE69603}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1460500" y="7620000"/>
-          <a:ext cx="12204700" cy="5041900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41606AA1-7FAC-7B48-AFF4-858FCA6F58AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1460500" y="14478000"/>
-          <a:ext cx="13500100" cy="8115300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2823,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:Z1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12137,7904 +11648,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9969A44-CDF4-9840-88A4-35BAE596DCEA}">
-  <dimension ref="A1:R24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>658</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>659</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>662</v>
-      </c>
-      <c r="I7" t="s">
-        <v>668</v>
-      </c>
-      <c r="K7" t="s">
-        <v>667</v>
-      </c>
-      <c r="M7" t="s">
-        <v>662</v>
-      </c>
-      <c r="O7" t="s">
-        <v>672</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="G8" t="s">
-        <v>663</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="M8" t="s">
-        <v>665</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>660</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G9" t="s">
-        <v>664</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E10" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E11" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="G11" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E13" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>680</v>
-      </c>
-      <c r="R13" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E14" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>681</v>
-      </c>
-      <c r="R14" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E15" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="23" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L23" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="24" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>671</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEF45C0-0810-3544-A350-1DA6CF526C45}">
-  <dimension ref="A1:O206"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2">
-        <v>103166</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F2" s="3">
-        <v>35991</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3">
-        <v>29593</v>
-      </c>
-      <c r="D3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" t="s">
-        <v>524</v>
-      </c>
-      <c r="F3" s="3">
-        <v>42888</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4">
-        <v>84297</v>
-      </c>
-      <c r="D4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4" t="s">
-        <v>523</v>
-      </c>
-      <c r="F4" s="3">
-        <v>38681</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I4" t="s">
-        <v>253</v>
-      </c>
-      <c r="J4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5">
-        <v>65778</v>
-      </c>
-      <c r="D5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E5" t="s">
-        <v>523</v>
-      </c>
-      <c r="F5" s="3">
-        <v>36207</v>
-      </c>
-      <c r="G5" s="3">
-        <v>38680</v>
-      </c>
-      <c r="H5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J5" t="s">
-        <v>227</v>
-      </c>
-      <c r="K5" t="s">
-        <v>228</v>
-      </c>
-      <c r="L5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6">
-        <v>35638</v>
-      </c>
-      <c r="D6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" t="s">
-        <v>524</v>
-      </c>
-      <c r="F6" s="3">
-        <v>43071</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" t="s">
-        <v>229</v>
-      </c>
-      <c r="I6" t="s">
-        <v>230</v>
-      </c>
-      <c r="J6" t="s">
-        <v>231</v>
-      </c>
-      <c r="K6" t="s">
-        <v>232</v>
-      </c>
-      <c r="L6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7">
-        <v>196226</v>
-      </c>
-      <c r="D7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" t="s">
-        <v>525</v>
-      </c>
-      <c r="F7" s="3">
-        <v>36302</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I7" t="s">
-        <v>242</v>
-      </c>
-      <c r="J7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8">
-        <v>43410</v>
-      </c>
-      <c r="D8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" t="s">
-        <v>522</v>
-      </c>
-      <c r="F8" s="3">
-        <v>34898</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" t="s">
-        <v>233</v>
-      </c>
-      <c r="I8" t="s">
-        <v>234</v>
-      </c>
-      <c r="J8" t="s">
-        <v>235</v>
-      </c>
-      <c r="K8" t="s">
-        <v>236</v>
-      </c>
-      <c r="L8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C9">
-        <v>39450</v>
-      </c>
-      <c r="D9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" t="s">
-        <v>523</v>
-      </c>
-      <c r="F9" s="3">
-        <v>41324</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" t="s">
-        <v>237</v>
-      </c>
-      <c r="I9" t="s">
-        <v>238</v>
-      </c>
-      <c r="J9" t="s">
-        <v>239</v>
-      </c>
-      <c r="K9" t="s">
-        <v>240</v>
-      </c>
-      <c r="L9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="1">
-        <v>176000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" t="s">
-        <v>547</v>
-      </c>
-      <c r="F10" s="3">
-        <v>34933</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" t="s">
-        <v>233</v>
-      </c>
-      <c r="I10" t="s">
-        <v>234</v>
-      </c>
-      <c r="J10" t="s">
-        <v>235</v>
-      </c>
-      <c r="K10" t="s">
-        <v>236</v>
-      </c>
-      <c r="L10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11">
-        <v>38176</v>
-      </c>
-      <c r="D11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" t="s">
-        <v>525</v>
-      </c>
-      <c r="F11" s="3">
-        <v>42887</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" t="s">
-        <v>229</v>
-      </c>
-      <c r="I11" t="s">
-        <v>230</v>
-      </c>
-      <c r="J11" t="s">
-        <v>231</v>
-      </c>
-      <c r="K11" t="s">
-        <v>232</v>
-      </c>
-      <c r="L11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12">
-        <v>208554</v>
-      </c>
-      <c r="D12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" t="s">
-        <v>525</v>
-      </c>
-      <c r="F12" s="3">
-        <v>35131</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" t="s">
-        <v>214</v>
-      </c>
-      <c r="I12" t="s">
-        <v>253</v>
-      </c>
-      <c r="J12" t="s">
-        <v>227</v>
-      </c>
-      <c r="K12" t="s">
-        <v>228</v>
-      </c>
-      <c r="L12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13">
-        <v>114616</v>
-      </c>
-      <c r="D13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" t="s">
-        <v>524</v>
-      </c>
-      <c r="F13" s="3">
-        <v>43418</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" t="s">
-        <v>229</v>
-      </c>
-      <c r="I13" t="s">
-        <v>230</v>
-      </c>
-      <c r="J13" t="s">
-        <v>231</v>
-      </c>
-      <c r="K13" t="s">
-        <v>232</v>
-      </c>
-      <c r="L13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14">
-        <v>84625</v>
-      </c>
-      <c r="D14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E14" t="s">
-        <v>523</v>
-      </c>
-      <c r="F14" s="3">
-        <v>39483</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" t="s">
-        <v>229</v>
-      </c>
-      <c r="I14" t="s">
-        <v>230</v>
-      </c>
-      <c r="J14" t="s">
-        <v>231</v>
-      </c>
-      <c r="K14" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15">
-        <v>90884</v>
-      </c>
-      <c r="D15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" t="s">
-        <v>524</v>
-      </c>
-      <c r="F15" s="3">
-        <v>41731</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" t="s">
-        <v>229</v>
-      </c>
-      <c r="I15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K15" t="s">
-        <v>232</v>
-      </c>
-      <c r="L15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16">
-        <v>45325</v>
-      </c>
-      <c r="D16" t="s">
-        <v>214</v>
-      </c>
-      <c r="E16" t="s">
-        <v>547</v>
-      </c>
-      <c r="F16" s="3">
-        <v>34851</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I16" t="s">
-        <v>253</v>
-      </c>
-      <c r="J16" t="s">
-        <v>227</v>
-      </c>
-      <c r="K16" t="s">
-        <v>228</v>
-      </c>
-      <c r="L16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17">
-        <v>37136</v>
-      </c>
-      <c r="D17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E17" t="s">
-        <v>523</v>
-      </c>
-      <c r="F17" s="3">
-        <v>40087</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I17" t="s">
-        <v>238</v>
-      </c>
-      <c r="J17" t="s">
-        <v>239</v>
-      </c>
-      <c r="K17" t="s">
-        <v>240</v>
-      </c>
-      <c r="L17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18">
-        <v>177673</v>
-      </c>
-      <c r="D18" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18" t="s">
-        <v>547</v>
-      </c>
-      <c r="F18" s="3">
-        <v>36281</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" t="s">
-        <v>214</v>
-      </c>
-      <c r="I18" t="s">
-        <v>253</v>
-      </c>
-      <c r="J18" t="s">
-        <v>227</v>
-      </c>
-      <c r="K18" t="s">
-        <v>228</v>
-      </c>
-      <c r="L18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C19">
-        <v>130129</v>
-      </c>
-      <c r="D19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" t="s">
-        <v>523</v>
-      </c>
-      <c r="F19" s="3">
-        <v>40208</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" t="s">
-        <v>229</v>
-      </c>
-      <c r="I19" t="s">
-        <v>230</v>
-      </c>
-      <c r="J19" t="s">
-        <v>231</v>
-      </c>
-      <c r="K19" t="s">
-        <v>232</v>
-      </c>
-      <c r="L19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20">
-        <v>124699</v>
-      </c>
-      <c r="D20" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" t="s">
-        <v>524</v>
-      </c>
-      <c r="F20" s="3">
-        <v>39474</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I20" t="s">
-        <v>253</v>
-      </c>
-      <c r="J20" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21">
-        <v>97040</v>
-      </c>
-      <c r="D21" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" t="s">
-        <v>523</v>
-      </c>
-      <c r="F21" s="3">
-        <v>38994</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" t="s">
-        <v>229</v>
-      </c>
-      <c r="I21" t="s">
-        <v>230</v>
-      </c>
-      <c r="J21" t="s">
-        <v>231</v>
-      </c>
-      <c r="K21" t="s">
-        <v>232</v>
-      </c>
-      <c r="L21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22">
-        <v>41090</v>
-      </c>
-      <c r="D22" t="s">
-        <v>218</v>
-      </c>
-      <c r="E22" t="s">
-        <v>522</v>
-      </c>
-      <c r="F22" s="3">
-        <v>39873</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" t="s">
-        <v>237</v>
-      </c>
-      <c r="I22" t="s">
-        <v>238</v>
-      </c>
-      <c r="J22" t="s">
-        <v>239</v>
-      </c>
-      <c r="K22" t="s">
-        <v>240</v>
-      </c>
-      <c r="L22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23">
-        <v>49816</v>
-      </c>
-      <c r="D23" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23" t="s">
-        <v>523</v>
-      </c>
-      <c r="F23" s="3">
-        <v>38883</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" t="s">
-        <v>237</v>
-      </c>
-      <c r="I23" t="s">
-        <v>238</v>
-      </c>
-      <c r="J23" t="s">
-        <v>239</v>
-      </c>
-      <c r="K23" t="s">
-        <v>240</v>
-      </c>
-      <c r="L23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" t="s">
-        <v>246</v>
-      </c>
-      <c r="C24">
-        <v>172479</v>
-      </c>
-      <c r="D24" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" t="s">
-        <v>525</v>
-      </c>
-      <c r="F24" s="3">
-        <v>35407</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" t="s">
-        <v>214</v>
-      </c>
-      <c r="I24" t="s">
-        <v>253</v>
-      </c>
-      <c r="J24" t="s">
-        <v>227</v>
-      </c>
-      <c r="K24" t="s">
-        <v>228</v>
-      </c>
-      <c r="L24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>246</v>
-      </c>
-      <c r="C25">
-        <v>118753</v>
-      </c>
-      <c r="D25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" t="s">
-        <v>525</v>
-      </c>
-      <c r="F25" s="3">
-        <v>39419</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" t="s">
-        <v>214</v>
-      </c>
-      <c r="I25" t="s">
-        <v>253</v>
-      </c>
-      <c r="J25" t="s">
-        <v>227</v>
-      </c>
-      <c r="K25" t="s">
-        <v>228</v>
-      </c>
-      <c r="L25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26">
-        <v>159035</v>
-      </c>
-      <c r="D26" t="s">
-        <v>215</v>
-      </c>
-      <c r="E26" t="s">
-        <v>525</v>
-      </c>
-      <c r="F26" s="3">
-        <v>42671</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" t="s">
-        <v>233</v>
-      </c>
-      <c r="I26" t="s">
-        <v>234</v>
-      </c>
-      <c r="J26" t="s">
-        <v>235</v>
-      </c>
-      <c r="K26" t="s">
-        <v>236</v>
-      </c>
-      <c r="L26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>246</v>
-      </c>
-      <c r="C27">
-        <v>81047</v>
-      </c>
-      <c r="D27" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" t="s">
-        <v>524</v>
-      </c>
-      <c r="F27" s="3">
-        <v>41541</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" t="s">
-        <v>237</v>
-      </c>
-      <c r="I27" t="s">
-        <v>238</v>
-      </c>
-      <c r="J27" t="s">
-        <v>239</v>
-      </c>
-      <c r="K27" t="s">
-        <v>240</v>
-      </c>
-      <c r="L27" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" t="s">
-        <v>248</v>
-      </c>
-      <c r="C28">
-        <v>99864</v>
-      </c>
-      <c r="D28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E28" t="s">
-        <v>523</v>
-      </c>
-      <c r="F28" s="3">
-        <v>42858</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" t="s">
-        <v>233</v>
-      </c>
-      <c r="I28" t="s">
-        <v>234</v>
-      </c>
-      <c r="J28" t="s">
-        <v>235</v>
-      </c>
-      <c r="K28" t="s">
-        <v>236</v>
-      </c>
-      <c r="L28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>247</v>
-      </c>
-      <c r="C29">
-        <v>77155</v>
-      </c>
-      <c r="D29" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" t="s">
-        <v>524</v>
-      </c>
-      <c r="F29" s="3">
-        <v>38578</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" t="s">
-        <v>233</v>
-      </c>
-      <c r="I29" t="s">
-        <v>234</v>
-      </c>
-      <c r="J29" t="s">
-        <v>235</v>
-      </c>
-      <c r="K29" t="s">
-        <v>236</v>
-      </c>
-      <c r="L29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30">
-        <v>153889</v>
-      </c>
-      <c r="D30" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" t="s">
-        <v>524</v>
-      </c>
-      <c r="F30" s="3">
-        <v>42744</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" t="s">
-        <v>214</v>
-      </c>
-      <c r="I30" t="s">
-        <v>253</v>
-      </c>
-      <c r="J30" t="s">
-        <v>227</v>
-      </c>
-      <c r="K30" t="s">
-        <v>228</v>
-      </c>
-      <c r="L30" t="s">
-        <v>223</v>
-      </c>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>252</v>
-      </c>
-      <c r="C31">
-        <v>35825</v>
-      </c>
-      <c r="D31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" t="s">
-        <v>522</v>
-      </c>
-      <c r="F31" s="3">
-        <v>41782</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" t="s">
-        <v>229</v>
-      </c>
-      <c r="I31" t="s">
-        <v>230</v>
-      </c>
-      <c r="J31" t="s">
-        <v>231</v>
-      </c>
-      <c r="K31" t="s">
-        <v>232</v>
-      </c>
-      <c r="L31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32">
-        <v>196637</v>
-      </c>
-      <c r="D32" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" t="s">
-        <v>524</v>
-      </c>
-      <c r="F32" s="3">
-        <v>41573</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" t="s">
-        <v>229</v>
-      </c>
-      <c r="I32" t="s">
-        <v>230</v>
-      </c>
-      <c r="J32" t="s">
-        <v>231</v>
-      </c>
-      <c r="K32" t="s">
-        <v>232</v>
-      </c>
-      <c r="L32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33">
-        <v>169184</v>
-      </c>
-      <c r="D33" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" t="s">
-        <v>522</v>
-      </c>
-      <c r="F33" s="3">
-        <v>41302</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" t="s">
-        <v>233</v>
-      </c>
-      <c r="I33" t="s">
-        <v>234</v>
-      </c>
-      <c r="J33" t="s">
-        <v>235</v>
-      </c>
-      <c r="K33" t="s">
-        <v>236</v>
-      </c>
-      <c r="L33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C34">
-        <v>148005</v>
-      </c>
-      <c r="D34" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" t="s">
-        <v>524</v>
-      </c>
-      <c r="F34" s="3">
-        <v>39380</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" t="s">
-        <v>229</v>
-      </c>
-      <c r="I34" t="s">
-        <v>230</v>
-      </c>
-      <c r="J34" t="s">
-        <v>231</v>
-      </c>
-      <c r="K34" t="s">
-        <v>232</v>
-      </c>
-      <c r="L34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C35">
-        <v>196650</v>
-      </c>
-      <c r="D35" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" t="s">
-        <v>525</v>
-      </c>
-      <c r="F35" s="3">
-        <v>35914</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" t="s">
-        <v>229</v>
-      </c>
-      <c r="I35" t="s">
-        <v>230</v>
-      </c>
-      <c r="J35" t="s">
-        <v>231</v>
-      </c>
-      <c r="K35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L35" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" t="s">
-        <v>246</v>
-      </c>
-      <c r="C36">
-        <v>212353</v>
-      </c>
-      <c r="D36" t="s">
-        <v>215</v>
-      </c>
-      <c r="E36" t="s">
-        <v>525</v>
-      </c>
-      <c r="F36" s="3">
-        <v>40241</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" t="s">
-        <v>237</v>
-      </c>
-      <c r="I36" t="s">
-        <v>238</v>
-      </c>
-      <c r="J36" t="s">
-        <v>239</v>
-      </c>
-      <c r="K36" t="s">
-        <v>240</v>
-      </c>
-      <c r="L36" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" t="s">
-        <v>252</v>
-      </c>
-      <c r="C37">
-        <v>51207</v>
-      </c>
-      <c r="D37" t="s">
-        <v>216</v>
-      </c>
-      <c r="E37" t="s">
-        <v>524</v>
-      </c>
-      <c r="F37" s="3">
-        <v>36974</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I37" t="s">
-        <v>242</v>
-      </c>
-      <c r="J37" t="s">
-        <v>243</v>
-      </c>
-      <c r="K37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>251</v>
-      </c>
-      <c r="C38">
-        <v>51407</v>
-      </c>
-      <c r="D38" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" t="s">
-        <v>522</v>
-      </c>
-      <c r="F38" s="3">
-        <v>42486</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" t="s">
-        <v>241</v>
-      </c>
-      <c r="I38" t="s">
-        <v>242</v>
-      </c>
-      <c r="J38" t="s">
-        <v>243</v>
-      </c>
-      <c r="K38" t="s">
-        <v>244</v>
-      </c>
-      <c r="L38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" t="s">
-        <v>245</v>
-      </c>
-      <c r="C39">
-        <v>207651</v>
-      </c>
-      <c r="D39" t="s">
-        <v>217</v>
-      </c>
-      <c r="E39" t="s">
-        <v>523</v>
-      </c>
-      <c r="F39" s="3">
-        <v>35761</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" t="s">
-        <v>229</v>
-      </c>
-      <c r="I39" t="s">
-        <v>230</v>
-      </c>
-      <c r="J39" t="s">
-        <v>231</v>
-      </c>
-      <c r="K39" t="s">
-        <v>232</v>
-      </c>
-      <c r="L39" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" t="s">
-        <v>249</v>
-      </c>
-      <c r="C40">
-        <v>76913</v>
-      </c>
-      <c r="D40" t="s">
-        <v>216</v>
-      </c>
-      <c r="E40" t="s">
-        <v>524</v>
-      </c>
-      <c r="F40" s="3">
-        <v>37251</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" t="s">
-        <v>214</v>
-      </c>
-      <c r="I40" t="s">
-        <v>253</v>
-      </c>
-      <c r="J40" t="s">
-        <v>227</v>
-      </c>
-      <c r="K40" t="s">
-        <v>228</v>
-      </c>
-      <c r="L40" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41">
-        <v>78751</v>
-      </c>
-      <c r="D41" t="s">
-        <v>217</v>
-      </c>
-      <c r="E41" t="s">
-        <v>523</v>
-      </c>
-      <c r="F41" s="3">
-        <v>43036</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" t="s">
-        <v>233</v>
-      </c>
-      <c r="I41" t="s">
-        <v>234</v>
-      </c>
-      <c r="J41" t="s">
-        <v>235</v>
-      </c>
-      <c r="K41" t="s">
-        <v>236</v>
-      </c>
-      <c r="L41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="1">
-        <v>187000</v>
-      </c>
-      <c r="D42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E42" t="s">
-        <v>547</v>
-      </c>
-      <c r="F42" s="3">
-        <v>37599</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" t="s">
-        <v>233</v>
-      </c>
-      <c r="I42" t="s">
-        <v>234</v>
-      </c>
-      <c r="J42" t="s">
-        <v>235</v>
-      </c>
-      <c r="K42" t="s">
-        <v>236</v>
-      </c>
-      <c r="L42" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" t="s">
-        <v>251</v>
-      </c>
-      <c r="C43">
-        <v>42145</v>
-      </c>
-      <c r="D43" t="s">
-        <v>218</v>
-      </c>
-      <c r="E43" t="s">
-        <v>522</v>
-      </c>
-      <c r="F43" s="3">
-        <v>43918</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" t="s">
-        <v>229</v>
-      </c>
-      <c r="I43" t="s">
-        <v>230</v>
-      </c>
-      <c r="J43" t="s">
-        <v>231</v>
-      </c>
-      <c r="K43" t="s">
-        <v>232</v>
-      </c>
-      <c r="L43" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" t="s">
-        <v>246</v>
-      </c>
-      <c r="C44">
-        <v>140534</v>
-      </c>
-      <c r="D44" t="s">
-        <v>216</v>
-      </c>
-      <c r="E44" t="s">
-        <v>524</v>
-      </c>
-      <c r="F44" s="3">
-        <v>39832</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" t="s">
-        <v>241</v>
-      </c>
-      <c r="I44" t="s">
-        <v>242</v>
-      </c>
-      <c r="J44" t="s">
-        <v>243</v>
-      </c>
-      <c r="K44" t="s">
-        <v>244</v>
-      </c>
-      <c r="L44" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>246</v>
-      </c>
-      <c r="C45">
-        <v>87817</v>
-      </c>
-      <c r="D45" t="s">
-        <v>215</v>
-      </c>
-      <c r="E45" t="s">
-        <v>525</v>
-      </c>
-      <c r="F45" s="3">
-        <v>36321</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" t="s">
-        <v>229</v>
-      </c>
-      <c r="I45" t="s">
-        <v>230</v>
-      </c>
-      <c r="J45" t="s">
-        <v>231</v>
-      </c>
-      <c r="K45" t="s">
-        <v>232</v>
-      </c>
-      <c r="L45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
-        <v>249</v>
-      </c>
-      <c r="C46">
-        <v>86055</v>
-      </c>
-      <c r="D46" t="s">
-        <v>216</v>
-      </c>
-      <c r="E46" t="s">
-        <v>524</v>
-      </c>
-      <c r="F46" s="3">
-        <v>43228</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" t="s">
-        <v>237</v>
-      </c>
-      <c r="I46" t="s">
-        <v>238</v>
-      </c>
-      <c r="J46" t="s">
-        <v>239</v>
-      </c>
-      <c r="K46" t="s">
-        <v>240</v>
-      </c>
-      <c r="L46" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47">
-        <v>71846</v>
-      </c>
-      <c r="D47" t="s">
-        <v>216</v>
-      </c>
-      <c r="E47" t="s">
-        <v>524</v>
-      </c>
-      <c r="F47" s="3">
-        <v>41595</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" t="s">
-        <v>214</v>
-      </c>
-      <c r="I47" t="s">
-        <v>253</v>
-      </c>
-      <c r="J47" t="s">
-        <v>227</v>
-      </c>
-      <c r="K47" t="s">
-        <v>228</v>
-      </c>
-      <c r="L47" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48">
-        <v>28373</v>
-      </c>
-      <c r="D48" t="s">
-        <v>214</v>
-      </c>
-      <c r="E48" t="s">
-        <v>547</v>
-      </c>
-      <c r="F48" s="3">
-        <v>40527</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" t="s">
-        <v>214</v>
-      </c>
-      <c r="I48" t="s">
-        <v>253</v>
-      </c>
-      <c r="J48" t="s">
-        <v>227</v>
-      </c>
-      <c r="K48" t="s">
-        <v>228</v>
-      </c>
-      <c r="L48" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49">
-        <v>34677</v>
-      </c>
-      <c r="D49" t="s">
-        <v>217</v>
-      </c>
-      <c r="E49" t="s">
-        <v>523</v>
-      </c>
-      <c r="F49" s="3">
-        <v>36457</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" t="s">
-        <v>229</v>
-      </c>
-      <c r="I49" t="s">
-        <v>230</v>
-      </c>
-      <c r="J49" t="s">
-        <v>231</v>
-      </c>
-      <c r="K49" t="s">
-        <v>232</v>
-      </c>
-      <c r="L49" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" t="s">
-        <v>245</v>
-      </c>
-      <c r="C50">
-        <v>83548</v>
-      </c>
-      <c r="D50" t="s">
-        <v>216</v>
-      </c>
-      <c r="E50" t="s">
-        <v>524</v>
-      </c>
-      <c r="F50" s="3">
-        <v>36030</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" t="s">
-        <v>241</v>
-      </c>
-      <c r="I50" t="s">
-        <v>242</v>
-      </c>
-      <c r="J50" t="s">
-        <v>243</v>
-      </c>
-      <c r="K50" t="s">
-        <v>244</v>
-      </c>
-      <c r="L50" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51">
-        <v>180692</v>
-      </c>
-      <c r="D51" t="s">
-        <v>216</v>
-      </c>
-      <c r="E51" t="s">
-        <v>524</v>
-      </c>
-      <c r="F51" s="3">
-        <v>43381</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" t="s">
-        <v>214</v>
-      </c>
-      <c r="I51" t="s">
-        <v>253</v>
-      </c>
-      <c r="J51" t="s">
-        <v>227</v>
-      </c>
-      <c r="K51" t="s">
-        <v>228</v>
-      </c>
-      <c r="L51" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" t="s">
-        <v>245</v>
-      </c>
-      <c r="C52">
-        <v>132436</v>
-      </c>
-      <c r="D52" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" t="s">
-        <v>547</v>
-      </c>
-      <c r="F52" s="3">
-        <v>39729</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" t="s">
-        <v>214</v>
-      </c>
-      <c r="I52" t="s">
-        <v>253</v>
-      </c>
-      <c r="J52" t="s">
-        <v>227</v>
-      </c>
-      <c r="K52" t="s">
-        <v>228</v>
-      </c>
-      <c r="L52" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>194</v>
-      </c>
-      <c r="B53" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53">
-        <v>101850</v>
-      </c>
-      <c r="D53" t="s">
-        <v>217</v>
-      </c>
-      <c r="E53" t="s">
-        <v>523</v>
-      </c>
-      <c r="F53" s="3">
-        <v>41370</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" t="s">
-        <v>237</v>
-      </c>
-      <c r="I53" t="s">
-        <v>238</v>
-      </c>
-      <c r="J53" t="s">
-        <v>239</v>
-      </c>
-      <c r="K53" t="s">
-        <v>240</v>
-      </c>
-      <c r="L53" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" t="s">
-        <v>246</v>
-      </c>
-      <c r="C54">
-        <v>212551</v>
-      </c>
-      <c r="D54" t="s">
-        <v>215</v>
-      </c>
-      <c r="E54" t="s">
-        <v>525</v>
-      </c>
-      <c r="F54" s="3">
-        <v>41582</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" t="s">
-        <v>233</v>
-      </c>
-      <c r="I54" t="s">
-        <v>234</v>
-      </c>
-      <c r="J54" t="s">
-        <v>235</v>
-      </c>
-      <c r="K54" t="s">
-        <v>236</v>
-      </c>
-      <c r="L54" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>192</v>
-      </c>
-      <c r="B55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C55">
-        <v>110704</v>
-      </c>
-      <c r="D55" t="s">
-        <v>217</v>
-      </c>
-      <c r="E55" t="s">
-        <v>523</v>
-      </c>
-      <c r="F55" s="3">
-        <v>43008</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" t="s">
-        <v>214</v>
-      </c>
-      <c r="I55" t="s">
-        <v>253</v>
-      </c>
-      <c r="J55" t="s">
-        <v>227</v>
-      </c>
-      <c r="K55" t="s">
-        <v>228</v>
-      </c>
-      <c r="L55" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>151</v>
-      </c>
-      <c r="B56" t="s">
-        <v>246</v>
-      </c>
-      <c r="C56">
-        <v>188080</v>
-      </c>
-      <c r="D56" t="s">
-        <v>216</v>
-      </c>
-      <c r="E56" t="s">
-        <v>524</v>
-      </c>
-      <c r="F56" s="3">
-        <v>34872</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" t="s">
-        <v>229</v>
-      </c>
-      <c r="I56" t="s">
-        <v>230</v>
-      </c>
-      <c r="J56" t="s">
-        <v>231</v>
-      </c>
-      <c r="K56" t="s">
-        <v>232</v>
-      </c>
-      <c r="L56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>145</v>
-      </c>
-      <c r="B57" t="s">
-        <v>248</v>
-      </c>
-      <c r="C57">
-        <v>83732</v>
-      </c>
-      <c r="D57" t="s">
-        <v>217</v>
-      </c>
-      <c r="E57" t="s">
-        <v>523</v>
-      </c>
-      <c r="F57" s="3">
-        <v>38924</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" t="s">
-        <v>214</v>
-      </c>
-      <c r="I57" t="s">
-        <v>253</v>
-      </c>
-      <c r="J57" t="s">
-        <v>227</v>
-      </c>
-      <c r="K57" t="s">
-        <v>228</v>
-      </c>
-      <c r="L57" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58">
-        <v>41407</v>
-      </c>
-      <c r="D58" t="s">
-        <v>218</v>
-      </c>
-      <c r="E58" t="s">
-        <v>522</v>
-      </c>
-      <c r="F58" s="3">
-        <v>37362</v>
-      </c>
-      <c r="G58" s="3">
-        <v>38923</v>
-      </c>
-      <c r="H58" t="s">
-        <v>214</v>
-      </c>
-      <c r="I58" t="s">
-        <v>253</v>
-      </c>
-      <c r="J58" t="s">
-        <v>227</v>
-      </c>
-      <c r="K58" t="s">
-        <v>228</v>
-      </c>
-      <c r="L58" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" t="s">
-        <v>246</v>
-      </c>
-      <c r="C59">
-        <v>134130</v>
-      </c>
-      <c r="D59" t="s">
-        <v>215</v>
-      </c>
-      <c r="E59" t="s">
-        <v>525</v>
-      </c>
-      <c r="F59" s="3">
-        <v>41405</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" t="s">
-        <v>241</v>
-      </c>
-      <c r="I59" t="s">
-        <v>242</v>
-      </c>
-      <c r="J59" t="s">
-        <v>243</v>
-      </c>
-      <c r="K59" t="s">
-        <v>244</v>
-      </c>
-      <c r="L59" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>247</v>
-      </c>
-      <c r="C60">
-        <v>87465</v>
-      </c>
-      <c r="D60" t="s">
-        <v>216</v>
-      </c>
-      <c r="E60" t="s">
-        <v>524</v>
-      </c>
-      <c r="F60" s="3">
-        <v>40914</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" t="s">
-        <v>229</v>
-      </c>
-      <c r="I60" t="s">
-        <v>230</v>
-      </c>
-      <c r="J60" t="s">
-        <v>231</v>
-      </c>
-      <c r="K60" t="s">
-        <v>232</v>
-      </c>
-      <c r="L60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" t="s">
-        <v>246</v>
-      </c>
-      <c r="C61">
-        <v>174060</v>
-      </c>
-      <c r="D61" t="s">
-        <v>215</v>
-      </c>
-      <c r="E61" t="s">
-        <v>525</v>
-      </c>
-      <c r="F61" s="3">
-        <v>35267</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" t="s">
-        <v>229</v>
-      </c>
-      <c r="I61" t="s">
-        <v>230</v>
-      </c>
-      <c r="J61" t="s">
-        <v>231</v>
-      </c>
-      <c r="K61" t="s">
-        <v>232</v>
-      </c>
-      <c r="L61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>189</v>
-      </c>
-      <c r="B62" t="s">
-        <v>250</v>
-      </c>
-      <c r="C62">
-        <v>102614</v>
-      </c>
-      <c r="D62" t="s">
-        <v>217</v>
-      </c>
-      <c r="E62" t="s">
-        <v>523</v>
-      </c>
-      <c r="F62" s="3">
-        <v>39727</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" t="s">
-        <v>214</v>
-      </c>
-      <c r="I62" t="s">
-        <v>253</v>
-      </c>
-      <c r="J62" t="s">
-        <v>227</v>
-      </c>
-      <c r="K62" t="s">
-        <v>228</v>
-      </c>
-      <c r="L62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>189</v>
-      </c>
-      <c r="B63" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63">
-        <v>76345</v>
-      </c>
-      <c r="D63" t="s">
-        <v>216</v>
-      </c>
-      <c r="E63" t="s">
-        <v>524</v>
-      </c>
-      <c r="F63" s="3">
-        <v>38174</v>
-      </c>
-      <c r="G63" s="3">
-        <v>39726</v>
-      </c>
-      <c r="H63" t="s">
-        <v>214</v>
-      </c>
-      <c r="I63" t="s">
-        <v>253</v>
-      </c>
-      <c r="J63" t="s">
-        <v>227</v>
-      </c>
-      <c r="K63" t="s">
-        <v>228</v>
-      </c>
-      <c r="L63" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" t="s">
-        <v>246</v>
-      </c>
-      <c r="C64">
-        <v>191995</v>
-      </c>
-      <c r="D64" t="s">
-        <v>216</v>
-      </c>
-      <c r="E64" t="s">
-        <v>524</v>
-      </c>
-      <c r="F64" s="3">
-        <v>37827</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" t="s">
-        <v>214</v>
-      </c>
-      <c r="I64" t="s">
-        <v>253</v>
-      </c>
-      <c r="J64" t="s">
-        <v>227</v>
-      </c>
-      <c r="K64" t="s">
-        <v>228</v>
-      </c>
-      <c r="L64" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" t="s">
-        <v>246</v>
-      </c>
-      <c r="C65">
-        <v>70148</v>
-      </c>
-      <c r="D65" t="s">
-        <v>215</v>
-      </c>
-      <c r="E65" t="s">
-        <v>525</v>
-      </c>
-      <c r="F65" s="3">
-        <v>37265</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" t="s">
-        <v>233</v>
-      </c>
-      <c r="I65" t="s">
-        <v>234</v>
-      </c>
-      <c r="J65" t="s">
-        <v>235</v>
-      </c>
-      <c r="K65" t="s">
-        <v>236</v>
-      </c>
-      <c r="L65" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" t="s">
-        <v>245</v>
-      </c>
-      <c r="C66">
-        <v>93400</v>
-      </c>
-      <c r="D66" t="s">
-        <v>217</v>
-      </c>
-      <c r="E66" t="s">
-        <v>523</v>
-      </c>
-      <c r="F66" s="3">
-        <v>43730</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" t="s">
-        <v>241</v>
-      </c>
-      <c r="I66" t="s">
-        <v>242</v>
-      </c>
-      <c r="J66" t="s">
-        <v>243</v>
-      </c>
-      <c r="K66" t="s">
-        <v>244</v>
-      </c>
-      <c r="L66" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" t="s">
-        <v>249</v>
-      </c>
-      <c r="C67">
-        <v>52924</v>
-      </c>
-      <c r="D67" t="s">
-        <v>217</v>
-      </c>
-      <c r="E67" t="s">
-        <v>523</v>
-      </c>
-      <c r="F67" s="3">
-        <v>43258</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" t="s">
-        <v>241</v>
-      </c>
-      <c r="I67" t="s">
-        <v>242</v>
-      </c>
-      <c r="J67" t="s">
-        <v>243</v>
-      </c>
-      <c r="K67" t="s">
-        <v>244</v>
-      </c>
-      <c r="L67" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" t="s">
-        <v>247</v>
-      </c>
-      <c r="C68">
-        <v>79694</v>
-      </c>
-      <c r="D68" t="s">
-        <v>216</v>
-      </c>
-      <c r="E68" t="s">
-        <v>524</v>
-      </c>
-      <c r="F68" s="3">
-        <v>39228</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" t="s">
-        <v>229</v>
-      </c>
-      <c r="I68" t="s">
-        <v>230</v>
-      </c>
-      <c r="J68" t="s">
-        <v>231</v>
-      </c>
-      <c r="K68" t="s">
-        <v>232</v>
-      </c>
-      <c r="L68" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>155</v>
-      </c>
-      <c r="B69" t="s">
-        <v>246</v>
-      </c>
-      <c r="C69">
-        <v>162790</v>
-      </c>
-      <c r="D69" t="s">
-        <v>216</v>
-      </c>
-      <c r="E69" t="s">
-        <v>524</v>
-      </c>
-      <c r="F69" s="3">
-        <v>42572</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" t="s">
-        <v>233</v>
-      </c>
-      <c r="I69" t="s">
-        <v>234</v>
-      </c>
-      <c r="J69" t="s">
-        <v>235</v>
-      </c>
-      <c r="K69" t="s">
-        <v>236</v>
-      </c>
-      <c r="L69" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" t="s">
-        <v>245</v>
-      </c>
-      <c r="C70">
-        <v>176207</v>
-      </c>
-      <c r="D70" t="s">
-        <v>217</v>
-      </c>
-      <c r="E70" t="s">
-        <v>523</v>
-      </c>
-      <c r="F70" s="3">
-        <v>41747</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" t="s">
-        <v>237</v>
-      </c>
-      <c r="I70" t="s">
-        <v>238</v>
-      </c>
-      <c r="J70" t="s">
-        <v>239</v>
-      </c>
-      <c r="K70" t="s">
-        <v>240</v>
-      </c>
-      <c r="L70" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>114</v>
-      </c>
-      <c r="B71" t="s">
-        <v>248</v>
-      </c>
-      <c r="C71">
-        <v>153362</v>
-      </c>
-      <c r="D71" t="s">
-        <v>217</v>
-      </c>
-      <c r="E71" t="s">
-        <v>523</v>
-      </c>
-      <c r="F71" s="3">
-        <v>41578</v>
-      </c>
-      <c r="G71" s="3"/>
-      <c r="H71" t="s">
-        <v>241</v>
-      </c>
-      <c r="I71" t="s">
-        <v>242</v>
-      </c>
-      <c r="J71" t="s">
-        <v>243</v>
-      </c>
-      <c r="K71" t="s">
-        <v>244</v>
-      </c>
-      <c r="L71" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>138</v>
-      </c>
-      <c r="B72" t="s">
-        <v>249</v>
-      </c>
-      <c r="C72">
-        <v>96416</v>
-      </c>
-      <c r="D72" t="s">
-        <v>216</v>
-      </c>
-      <c r="E72" t="s">
-        <v>524</v>
-      </c>
-      <c r="F72" s="3">
-        <v>43839</v>
-      </c>
-      <c r="G72" s="3"/>
-      <c r="H72" t="s">
-        <v>233</v>
-      </c>
-      <c r="I72" t="s">
-        <v>234</v>
-      </c>
-      <c r="J72" t="s">
-        <v>235</v>
-      </c>
-      <c r="K72" t="s">
-        <v>236</v>
-      </c>
-      <c r="L72" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73">
-        <v>173443</v>
-      </c>
-      <c r="D73" t="s">
-        <v>215</v>
-      </c>
-      <c r="E73" t="s">
-        <v>525</v>
-      </c>
-      <c r="F73" s="3">
-        <v>38333</v>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="H73" t="s">
-        <v>214</v>
-      </c>
-      <c r="I73" t="s">
-        <v>253</v>
-      </c>
-      <c r="J73" t="s">
-        <v>227</v>
-      </c>
-      <c r="K73" t="s">
-        <v>228</v>
-      </c>
-      <c r="L73" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" t="s">
-        <v>246</v>
-      </c>
-      <c r="C74">
-        <v>170741</v>
-      </c>
-      <c r="D74" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" t="s">
-        <v>525</v>
-      </c>
-      <c r="F74" s="3">
-        <v>39972</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" t="s">
-        <v>214</v>
-      </c>
-      <c r="I74" t="s">
-        <v>253</v>
-      </c>
-      <c r="J74" t="s">
-        <v>227</v>
-      </c>
-      <c r="K74" t="s">
-        <v>228</v>
-      </c>
-      <c r="L74" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C75">
-        <v>79408</v>
-      </c>
-      <c r="D75" t="s">
-        <v>216</v>
-      </c>
-      <c r="E75" t="s">
-        <v>524</v>
-      </c>
-      <c r="F75" s="3">
-        <v>35804</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" t="s">
-        <v>229</v>
-      </c>
-      <c r="I75" t="s">
-        <v>230</v>
-      </c>
-      <c r="J75" t="s">
-        <v>231</v>
-      </c>
-      <c r="K75" t="s">
-        <v>232</v>
-      </c>
-      <c r="L75" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>172</v>
-      </c>
-      <c r="B76" t="s">
-        <v>252</v>
-      </c>
-      <c r="C76">
-        <v>47418</v>
-      </c>
-      <c r="D76" t="s">
-        <v>218</v>
-      </c>
-      <c r="E76" t="s">
-        <v>522</v>
-      </c>
-      <c r="F76" s="3">
-        <v>37972</v>
-      </c>
-      <c r="G76" s="3"/>
-      <c r="H76" t="s">
-        <v>233</v>
-      </c>
-      <c r="I76" t="s">
-        <v>234</v>
-      </c>
-      <c r="J76" t="s">
-        <v>235</v>
-      </c>
-      <c r="K76" t="s">
-        <v>236</v>
-      </c>
-      <c r="L76" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" t="s">
-        <v>247</v>
-      </c>
-      <c r="C77">
-        <v>113702</v>
-      </c>
-      <c r="D77" t="s">
-        <v>216</v>
-      </c>
-      <c r="E77" t="s">
-        <v>524</v>
-      </c>
-      <c r="F77" s="3">
-        <v>40983</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" t="s">
-        <v>233</v>
-      </c>
-      <c r="I77" t="s">
-        <v>234</v>
-      </c>
-      <c r="J77" t="s">
-        <v>235</v>
-      </c>
-      <c r="K77" t="s">
-        <v>236</v>
-      </c>
-      <c r="L77" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>139</v>
-      </c>
-      <c r="B78" t="s">
-        <v>249</v>
-      </c>
-      <c r="C78">
-        <v>71942</v>
-      </c>
-      <c r="D78" t="s">
-        <v>217</v>
-      </c>
-      <c r="E78" t="s">
-        <v>523</v>
-      </c>
-      <c r="F78" s="3">
-        <v>40661</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" t="s">
-        <v>241</v>
-      </c>
-      <c r="I78" t="s">
-        <v>242</v>
-      </c>
-      <c r="J78" t="s">
-        <v>243</v>
-      </c>
-      <c r="K78" t="s">
-        <v>244</v>
-      </c>
-      <c r="L78" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" t="s">
-        <v>213</v>
-      </c>
-      <c r="C79" s="1">
-        <v>205000</v>
-      </c>
-      <c r="D79" t="s">
-        <v>217</v>
-      </c>
-      <c r="E79" t="s">
-        <v>547</v>
-      </c>
-      <c r="F79" s="3">
-        <v>39204</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" t="s">
-        <v>229</v>
-      </c>
-      <c r="I79" t="s">
-        <v>230</v>
-      </c>
-      <c r="J79" t="s">
-        <v>231</v>
-      </c>
-      <c r="K79" t="s">
-        <v>232</v>
-      </c>
-      <c r="L79" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>42</v>
-      </c>
-      <c r="B80" t="s">
-        <v>247</v>
-      </c>
-      <c r="C80">
-        <v>134237</v>
-      </c>
-      <c r="D80" t="s">
-        <v>217</v>
-      </c>
-      <c r="E80" t="s">
-        <v>523</v>
-      </c>
-      <c r="F80" s="3">
-        <v>38437</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" t="s">
-        <v>229</v>
-      </c>
-      <c r="I80" t="s">
-        <v>230</v>
-      </c>
-      <c r="J80" t="s">
-        <v>231</v>
-      </c>
-      <c r="K80" t="s">
-        <v>232</v>
-      </c>
-      <c r="L80" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>157</v>
-      </c>
-      <c r="B81" t="s">
-        <v>246</v>
-      </c>
-      <c r="C81">
-        <v>101469</v>
-      </c>
-      <c r="D81" t="s">
-        <v>216</v>
-      </c>
-      <c r="E81" t="s">
-        <v>524</v>
-      </c>
-      <c r="F81" s="3">
-        <v>35164</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" t="s">
-        <v>229</v>
-      </c>
-      <c r="I81" t="s">
-        <v>230</v>
-      </c>
-      <c r="J81" t="s">
-        <v>231</v>
-      </c>
-      <c r="K81" t="s">
-        <v>232</v>
-      </c>
-      <c r="L81" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" t="s">
-        <v>248</v>
-      </c>
-      <c r="C82">
-        <v>151379</v>
-      </c>
-      <c r="D82" t="s">
-        <v>217</v>
-      </c>
-      <c r="E82" t="s">
-        <v>523</v>
-      </c>
-      <c r="F82" s="3">
-        <v>36777</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" t="s">
-        <v>214</v>
-      </c>
-      <c r="I82" t="s">
-        <v>253</v>
-      </c>
-      <c r="J82" t="s">
-        <v>227</v>
-      </c>
-      <c r="K82" t="s">
-        <v>228</v>
-      </c>
-      <c r="L82" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>181</v>
-      </c>
-      <c r="B83" t="s">
-        <v>249</v>
-      </c>
-      <c r="C83">
-        <v>85880</v>
-      </c>
-      <c r="D83" t="s">
-        <v>216</v>
-      </c>
-      <c r="E83" t="s">
-        <v>524</v>
-      </c>
-      <c r="F83" s="3">
-        <v>39599</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" t="s">
-        <v>229</v>
-      </c>
-      <c r="I83" t="s">
-        <v>230</v>
-      </c>
-      <c r="J83" t="s">
-        <v>231</v>
-      </c>
-      <c r="K83" t="s">
-        <v>232</v>
-      </c>
-      <c r="L83" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" t="s">
-        <v>245</v>
-      </c>
-      <c r="C84">
-        <v>81812</v>
-      </c>
-      <c r="D84" t="s">
-        <v>214</v>
-      </c>
-      <c r="E84" t="s">
-        <v>547</v>
-      </c>
-      <c r="F84" s="3">
-        <v>37189</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" t="s">
-        <v>214</v>
-      </c>
-      <c r="I84" t="s">
-        <v>253</v>
-      </c>
-      <c r="J84" t="s">
-        <v>227</v>
-      </c>
-      <c r="K84" t="s">
-        <v>228</v>
-      </c>
-      <c r="L84" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>185</v>
-      </c>
-      <c r="B85" t="s">
-        <v>248</v>
-      </c>
-      <c r="C85">
-        <v>92788</v>
-      </c>
-      <c r="D85" t="s">
-        <v>217</v>
-      </c>
-      <c r="E85" t="s">
-        <v>523</v>
-      </c>
-      <c r="F85" s="3">
-        <v>36730</v>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="H85" t="s">
-        <v>237</v>
-      </c>
-      <c r="I85" t="s">
-        <v>238</v>
-      </c>
-      <c r="J85" t="s">
-        <v>239</v>
-      </c>
-      <c r="K85" t="s">
-        <v>240</v>
-      </c>
-      <c r="L85" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" t="s">
-        <v>252</v>
-      </c>
-      <c r="C86">
-        <v>34809</v>
-      </c>
-      <c r="D86" t="s">
-        <v>218</v>
-      </c>
-      <c r="E86" t="s">
-        <v>522</v>
-      </c>
-      <c r="F86" s="3">
-        <v>38728</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" t="s">
-        <v>233</v>
-      </c>
-      <c r="I86" t="s">
-        <v>234</v>
-      </c>
-      <c r="J86" t="s">
-        <v>235</v>
-      </c>
-      <c r="K86" t="s">
-        <v>236</v>
-      </c>
-      <c r="L86" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" t="s">
-        <v>247</v>
-      </c>
-      <c r="C87">
-        <v>99218</v>
-      </c>
-      <c r="D87" t="s">
-        <v>217</v>
-      </c>
-      <c r="E87" t="s">
-        <v>523</v>
-      </c>
-      <c r="F87" s="3">
-        <v>35788</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" t="s">
-        <v>214</v>
-      </c>
-      <c r="I87" t="s">
-        <v>253</v>
-      </c>
-      <c r="J87" t="s">
-        <v>227</v>
-      </c>
-      <c r="K87" t="s">
-        <v>228</v>
-      </c>
-      <c r="L87" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>59</v>
-      </c>
-      <c r="B88" t="s">
-        <v>246</v>
-      </c>
-      <c r="C88">
-        <v>102779</v>
-      </c>
-      <c r="D88" t="s">
-        <v>215</v>
-      </c>
-      <c r="E88" t="s">
-        <v>525</v>
-      </c>
-      <c r="F88" s="3">
-        <v>43548</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" t="s">
-        <v>214</v>
-      </c>
-      <c r="I88" t="s">
-        <v>253</v>
-      </c>
-      <c r="J88" t="s">
-        <v>227</v>
-      </c>
-      <c r="K88" t="s">
-        <v>228</v>
-      </c>
-      <c r="L88" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" t="s">
-        <v>213</v>
-      </c>
-      <c r="C89" s="1">
-        <v>210000</v>
-      </c>
-      <c r="D89" t="s">
-        <v>215</v>
-      </c>
-      <c r="E89" t="s">
-        <v>547</v>
-      </c>
-      <c r="F89" s="3">
-        <v>35054</v>
-      </c>
-      <c r="G89" s="3"/>
-      <c r="H89" t="s">
-        <v>233</v>
-      </c>
-      <c r="I89" t="s">
-        <v>234</v>
-      </c>
-      <c r="J89" t="s">
-        <v>235</v>
-      </c>
-      <c r="K89" t="s">
-        <v>236</v>
-      </c>
-      <c r="L89" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>186</v>
-      </c>
-      <c r="B90" t="s">
-        <v>248</v>
-      </c>
-      <c r="C90">
-        <v>115791</v>
-      </c>
-      <c r="D90" t="s">
-        <v>216</v>
-      </c>
-      <c r="E90" t="s">
-        <v>524</v>
-      </c>
-      <c r="F90" s="3">
-        <v>39247</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" t="s">
-        <v>237</v>
-      </c>
-      <c r="I90" t="s">
-        <v>238</v>
-      </c>
-      <c r="J90" t="s">
-        <v>239</v>
-      </c>
-      <c r="K90" t="s">
-        <v>240</v>
-      </c>
-      <c r="L90" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>41</v>
-      </c>
-      <c r="B91" t="s">
-        <v>248</v>
-      </c>
-      <c r="C91">
-        <v>111681</v>
-      </c>
-      <c r="D91" t="s">
-        <v>216</v>
-      </c>
-      <c r="E91" t="s">
-        <v>524</v>
-      </c>
-      <c r="F91" s="3">
-        <v>42436</v>
-      </c>
-      <c r="G91" s="3"/>
-      <c r="H91" t="s">
-        <v>214</v>
-      </c>
-      <c r="I91" t="s">
-        <v>253</v>
-      </c>
-      <c r="J91" t="s">
-        <v>227</v>
-      </c>
-      <c r="K91" t="s">
-        <v>228</v>
-      </c>
-      <c r="L91" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>166</v>
-      </c>
-      <c r="B92" t="s">
-        <v>245</v>
-      </c>
-      <c r="C92">
-        <v>123496</v>
-      </c>
-      <c r="D92" t="s">
-        <v>215</v>
-      </c>
-      <c r="E92" t="s">
-        <v>525</v>
-      </c>
-      <c r="F92" s="3">
-        <v>41728</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" t="s">
-        <v>237</v>
-      </c>
-      <c r="I92" t="s">
-        <v>238</v>
-      </c>
-      <c r="J92" t="s">
-        <v>239</v>
-      </c>
-      <c r="K92" t="s">
-        <v>240</v>
-      </c>
-      <c r="L92" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>18</v>
-      </c>
-      <c r="B93" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93">
-        <v>50462</v>
-      </c>
-      <c r="D93" t="s">
-        <v>216</v>
-      </c>
-      <c r="E93" t="s">
-        <v>524</v>
-      </c>
-      <c r="F93" s="3">
-        <v>39432</v>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="H93" t="s">
-        <v>214</v>
-      </c>
-      <c r="I93" t="s">
-        <v>253</v>
-      </c>
-      <c r="J93" t="s">
-        <v>227</v>
-      </c>
-      <c r="K93" t="s">
-        <v>228</v>
-      </c>
-      <c r="L93" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>198</v>
-      </c>
-      <c r="B94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C94">
-        <v>91389</v>
-      </c>
-      <c r="D94" t="s">
-        <v>216</v>
-      </c>
-      <c r="E94" t="s">
-        <v>524</v>
-      </c>
-      <c r="F94" s="3">
-        <v>43953</v>
-      </c>
-      <c r="G94" s="3"/>
-      <c r="H94" t="s">
-        <v>241</v>
-      </c>
-      <c r="I94" t="s">
-        <v>242</v>
-      </c>
-      <c r="J94" t="s">
-        <v>243</v>
-      </c>
-      <c r="K94" t="s">
-        <v>244</v>
-      </c>
-      <c r="L94" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" t="s">
-        <v>247</v>
-      </c>
-      <c r="C95">
-        <v>140231</v>
-      </c>
-      <c r="D95" t="s">
-        <v>216</v>
-      </c>
-      <c r="E95" t="s">
-        <v>524</v>
-      </c>
-      <c r="F95" s="3">
-        <v>36429</v>
-      </c>
-      <c r="G95" s="3"/>
-      <c r="H95" t="s">
-        <v>229</v>
-      </c>
-      <c r="I95" t="s">
-        <v>230</v>
-      </c>
-      <c r="J95" t="s">
-        <v>231</v>
-      </c>
-      <c r="K95" t="s">
-        <v>232</v>
-      </c>
-      <c r="L95" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="s">
-        <v>252</v>
-      </c>
-      <c r="C96">
-        <v>51633</v>
-      </c>
-      <c r="D96" t="s">
-        <v>214</v>
-      </c>
-      <c r="E96" t="s">
-        <v>547</v>
-      </c>
-      <c r="F96" s="3">
-        <v>39323</v>
-      </c>
-      <c r="G96" s="3"/>
-      <c r="H96" t="s">
-        <v>214</v>
-      </c>
-      <c r="I96" t="s">
-        <v>253</v>
-      </c>
-      <c r="J96" t="s">
-        <v>227</v>
-      </c>
-      <c r="K96" t="s">
-        <v>228</v>
-      </c>
-      <c r="L96" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>93</v>
-      </c>
-      <c r="B97" t="s">
-        <v>245</v>
-      </c>
-      <c r="C97">
-        <v>156298</v>
-      </c>
-      <c r="D97" t="s">
-        <v>218</v>
-      </c>
-      <c r="E97" t="s">
-        <v>522</v>
-      </c>
-      <c r="F97" s="3">
-        <v>42098</v>
-      </c>
-      <c r="G97" s="3"/>
-      <c r="H97" t="s">
-        <v>229</v>
-      </c>
-      <c r="I97" t="s">
-        <v>230</v>
-      </c>
-      <c r="J97" t="s">
-        <v>231</v>
-      </c>
-      <c r="K97" t="s">
-        <v>232</v>
-      </c>
-      <c r="L97" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>136</v>
-      </c>
-      <c r="B98" t="s">
-        <v>246</v>
-      </c>
-      <c r="C98">
-        <v>133564</v>
-      </c>
-      <c r="D98" t="s">
-        <v>216</v>
-      </c>
-      <c r="E98" t="s">
-        <v>524</v>
-      </c>
-      <c r="F98" s="3">
-        <v>38276</v>
-      </c>
-      <c r="G98" s="3"/>
-      <c r="H98" t="s">
-        <v>229</v>
-      </c>
-      <c r="I98" t="s">
-        <v>230</v>
-      </c>
-      <c r="J98" t="s">
-        <v>231</v>
-      </c>
-      <c r="K98" t="s">
-        <v>232</v>
-      </c>
-      <c r="L98" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>252</v>
-      </c>
-      <c r="C99">
-        <v>34826</v>
-      </c>
-      <c r="D99" t="s">
-        <v>215</v>
-      </c>
-      <c r="E99" t="s">
-        <v>525</v>
-      </c>
-      <c r="F99" s="3">
-        <v>42998</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="H99" t="s">
-        <v>241</v>
-      </c>
-      <c r="I99" t="s">
-        <v>242</v>
-      </c>
-      <c r="J99" t="s">
-        <v>243</v>
-      </c>
-      <c r="K99" t="s">
-        <v>244</v>
-      </c>
-      <c r="L99" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" t="s">
-        <v>252</v>
-      </c>
-      <c r="C100">
-        <v>40647</v>
-      </c>
-      <c r="D100" t="s">
-        <v>214</v>
-      </c>
-      <c r="E100" t="s">
-        <v>547</v>
-      </c>
-      <c r="F100" s="3">
-        <v>39443</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" t="s">
-        <v>214</v>
-      </c>
-      <c r="I100" t="s">
-        <v>253</v>
-      </c>
-      <c r="J100" t="s">
-        <v>227</v>
-      </c>
-      <c r="K100" t="s">
-        <v>228</v>
-      </c>
-      <c r="L100" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>53</v>
-      </c>
-      <c r="B101" t="s">
-        <v>251</v>
-      </c>
-      <c r="C101">
-        <v>26050</v>
-      </c>
-      <c r="D101" t="s">
-        <v>218</v>
-      </c>
-      <c r="E101" t="s">
-        <v>522</v>
-      </c>
-      <c r="F101" s="3">
-        <v>41112</v>
-      </c>
-      <c r="G101" s="3"/>
-      <c r="H101" t="s">
-        <v>229</v>
-      </c>
-      <c r="I101" t="s">
-        <v>230</v>
-      </c>
-      <c r="J101" t="s">
-        <v>231</v>
-      </c>
-      <c r="K101" t="s">
-        <v>232</v>
-      </c>
-      <c r="L101" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>48</v>
-      </c>
-      <c r="B102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C102">
-        <v>137555</v>
-      </c>
-      <c r="D102" t="s">
-        <v>216</v>
-      </c>
-      <c r="E102" t="s">
-        <v>524</v>
-      </c>
-      <c r="F102" s="3">
-        <v>38143</v>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="H102" t="s">
-        <v>214</v>
-      </c>
-      <c r="I102" t="s">
-        <v>253</v>
-      </c>
-      <c r="J102" t="s">
-        <v>227</v>
-      </c>
-      <c r="K102" t="s">
-        <v>228</v>
-      </c>
-      <c r="L102" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" t="s">
-        <v>249</v>
-      </c>
-      <c r="C103">
-        <v>77370</v>
-      </c>
-      <c r="D103" t="s">
-        <v>216</v>
-      </c>
-      <c r="E103" t="s">
-        <v>524</v>
-      </c>
-      <c r="F103" s="3">
-        <v>42848</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" t="s">
-        <v>229</v>
-      </c>
-      <c r="I103" t="s">
-        <v>230</v>
-      </c>
-      <c r="J103" t="s">
-        <v>231</v>
-      </c>
-      <c r="K103" t="s">
-        <v>232</v>
-      </c>
-      <c r="L103" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>28</v>
-      </c>
-      <c r="B104" t="s">
-        <v>249</v>
-      </c>
-      <c r="C104">
-        <v>65515</v>
-      </c>
-      <c r="D104" t="s">
-        <v>217</v>
-      </c>
-      <c r="E104" t="s">
-        <v>523</v>
-      </c>
-      <c r="F104" s="3">
-        <v>41870</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" t="s">
-        <v>241</v>
-      </c>
-      <c r="I104" t="s">
-        <v>242</v>
-      </c>
-      <c r="J104" t="s">
-        <v>243</v>
-      </c>
-      <c r="K104" t="s">
-        <v>244</v>
-      </c>
-      <c r="L104" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>252</v>
-      </c>
-      <c r="C105">
-        <v>34693</v>
-      </c>
-      <c r="D105" t="s">
-        <v>216</v>
-      </c>
-      <c r="E105" t="s">
-        <v>524</v>
-      </c>
-      <c r="F105" s="3">
-        <v>42144</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" t="s">
-        <v>241</v>
-      </c>
-      <c r="I105" t="s">
-        <v>242</v>
-      </c>
-      <c r="J105" t="s">
-        <v>243</v>
-      </c>
-      <c r="K105" t="s">
-        <v>244</v>
-      </c>
-      <c r="L105" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>162</v>
-      </c>
-      <c r="B106" t="s">
-        <v>247</v>
-      </c>
-      <c r="C106">
-        <v>113744</v>
-      </c>
-      <c r="D106" t="s">
-        <v>217</v>
-      </c>
-      <c r="E106" t="s">
-        <v>523</v>
-      </c>
-      <c r="F106" s="3">
-        <v>35447</v>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" t="s">
-        <v>241</v>
-      </c>
-      <c r="I106" t="s">
-        <v>242</v>
-      </c>
-      <c r="J106" t="s">
-        <v>243</v>
-      </c>
-      <c r="K106" t="s">
-        <v>244</v>
-      </c>
-      <c r="L106" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>170</v>
-      </c>
-      <c r="B107" t="s">
-        <v>252</v>
-      </c>
-      <c r="C107">
-        <v>48910</v>
-      </c>
-      <c r="D107" t="s">
-        <v>216</v>
-      </c>
-      <c r="E107" t="s">
-        <v>524</v>
-      </c>
-      <c r="F107" s="3">
-        <v>35169</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" t="s">
-        <v>214</v>
-      </c>
-      <c r="I107" t="s">
-        <v>253</v>
-      </c>
-      <c r="J107" t="s">
-        <v>227</v>
-      </c>
-      <c r="K107" t="s">
-        <v>228</v>
-      </c>
-      <c r="L107" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>129</v>
-      </c>
-      <c r="B108" t="s">
-        <v>251</v>
-      </c>
-      <c r="C108">
-        <v>27045</v>
-      </c>
-      <c r="D108" t="s">
-        <v>218</v>
-      </c>
-      <c r="E108" t="s">
-        <v>522</v>
-      </c>
-      <c r="F108" s="3">
-        <v>37595</v>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" t="s">
-        <v>229</v>
-      </c>
-      <c r="I108" t="s">
-        <v>230</v>
-      </c>
-      <c r="J108" t="s">
-        <v>231</v>
-      </c>
-      <c r="K108" t="s">
-        <v>232</v>
-      </c>
-      <c r="L108" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>106</v>
-      </c>
-      <c r="B109" t="s">
-        <v>249</v>
-      </c>
-      <c r="C109">
-        <v>101294</v>
-      </c>
-      <c r="D109" t="s">
-        <v>217</v>
-      </c>
-      <c r="E109" t="s">
-        <v>523</v>
-      </c>
-      <c r="F109" s="3">
-        <v>39564</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" t="s">
-        <v>233</v>
-      </c>
-      <c r="I109" t="s">
-        <v>234</v>
-      </c>
-      <c r="J109" t="s">
-        <v>235</v>
-      </c>
-      <c r="K109" t="s">
-        <v>236</v>
-      </c>
-      <c r="L109" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>147</v>
-      </c>
-      <c r="B110" t="s">
-        <v>246</v>
-      </c>
-      <c r="C110">
-        <v>180913</v>
-      </c>
-      <c r="D110" t="s">
-        <v>216</v>
-      </c>
-      <c r="E110" t="s">
-        <v>524</v>
-      </c>
-      <c r="F110" s="3">
-        <v>41008</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" t="s">
-        <v>214</v>
-      </c>
-      <c r="I110" t="s">
-        <v>253</v>
-      </c>
-      <c r="J110" t="s">
-        <v>227</v>
-      </c>
-      <c r="K110" t="s">
-        <v>228</v>
-      </c>
-      <c r="L110" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>61</v>
-      </c>
-      <c r="B111" t="s">
-        <v>249</v>
-      </c>
-      <c r="C111">
-        <v>93362</v>
-      </c>
-      <c r="D111" t="s">
-        <v>217</v>
-      </c>
-      <c r="E111" t="s">
-        <v>523</v>
-      </c>
-      <c r="F111" s="3">
-        <v>43614</v>
-      </c>
-      <c r="G111" s="3"/>
-      <c r="H111" t="s">
-        <v>229</v>
-      </c>
-      <c r="I111" t="s">
-        <v>230</v>
-      </c>
-      <c r="J111" t="s">
-        <v>231</v>
-      </c>
-      <c r="K111" t="s">
-        <v>232</v>
-      </c>
-      <c r="L111" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>27</v>
-      </c>
-      <c r="B112" t="s">
-        <v>252</v>
-      </c>
-      <c r="C112">
-        <v>47909</v>
-      </c>
-      <c r="D112" t="s">
-        <v>216</v>
-      </c>
-      <c r="E112" t="s">
-        <v>524</v>
-      </c>
-      <c r="F112" s="3">
-        <v>42723</v>
-      </c>
-      <c r="G112" s="3"/>
-      <c r="H112" t="s">
-        <v>241</v>
-      </c>
-      <c r="I112" t="s">
-        <v>242</v>
-      </c>
-      <c r="J112" t="s">
-        <v>243</v>
-      </c>
-      <c r="K112" t="s">
-        <v>244</v>
-      </c>
-      <c r="L112" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>54</v>
-      </c>
-      <c r="B113" t="s">
-        <v>251</v>
-      </c>
-      <c r="C113">
-        <v>28700</v>
-      </c>
-      <c r="D113" t="s">
-        <v>218</v>
-      </c>
-      <c r="E113" t="s">
-        <v>522</v>
-      </c>
-      <c r="F113" s="3">
-        <v>41939</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="H113" t="s">
-        <v>233</v>
-      </c>
-      <c r="I113" t="s">
-        <v>234</v>
-      </c>
-      <c r="J113" t="s">
-        <v>235</v>
-      </c>
-      <c r="K113" t="s">
-        <v>236</v>
-      </c>
-      <c r="L113" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>56</v>
-      </c>
-      <c r="B114" t="s">
-        <v>246</v>
-      </c>
-      <c r="C114">
-        <v>71867</v>
-      </c>
-      <c r="D114" t="s">
-        <v>216</v>
-      </c>
-      <c r="E114" t="s">
-        <v>524</v>
-      </c>
-      <c r="F114" s="3">
-        <v>41132</v>
-      </c>
-      <c r="G114" s="3"/>
-      <c r="H114" t="s">
-        <v>229</v>
-      </c>
-      <c r="I114" t="s">
-        <v>230</v>
-      </c>
-      <c r="J114" t="s">
-        <v>231</v>
-      </c>
-      <c r="K114" t="s">
-        <v>232</v>
-      </c>
-      <c r="L114" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>134</v>
-      </c>
-      <c r="B115" t="s">
-        <v>246</v>
-      </c>
-      <c r="C115">
-        <v>157102</v>
-      </c>
-      <c r="D115" t="s">
-        <v>216</v>
-      </c>
-      <c r="E115" t="s">
-        <v>524</v>
-      </c>
-      <c r="F115" s="3">
-        <v>41769</v>
-      </c>
-      <c r="G115" s="3"/>
-      <c r="H115" t="s">
-        <v>241</v>
-      </c>
-      <c r="I115" t="s">
-        <v>242</v>
-      </c>
-      <c r="J115" t="s">
-        <v>243</v>
-      </c>
-      <c r="K115" t="s">
-        <v>244</v>
-      </c>
-      <c r="L115" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>101</v>
-      </c>
-      <c r="B116" t="s">
-        <v>252</v>
-      </c>
-      <c r="C116">
-        <v>45210</v>
-      </c>
-      <c r="D116" t="s">
-        <v>217</v>
-      </c>
-      <c r="E116" t="s">
-        <v>523</v>
-      </c>
-      <c r="F116" s="3">
-        <v>35718</v>
-      </c>
-      <c r="G116" s="3"/>
-      <c r="H116" t="s">
-        <v>229</v>
-      </c>
-      <c r="I116" t="s">
-        <v>230</v>
-      </c>
-      <c r="J116" t="s">
-        <v>231</v>
-      </c>
-      <c r="K116" t="s">
-        <v>232</v>
-      </c>
-      <c r="L116" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>199</v>
-      </c>
-      <c r="B117" t="s">
-        <v>246</v>
-      </c>
-      <c r="C117">
-        <v>196705</v>
-      </c>
-      <c r="D117" t="s">
-        <v>215</v>
-      </c>
-      <c r="E117" t="s">
-        <v>525</v>
-      </c>
-      <c r="F117" s="3">
-        <v>41954</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="H117" t="s">
-        <v>229</v>
-      </c>
-      <c r="I117" t="s">
-        <v>230</v>
-      </c>
-      <c r="J117" t="s">
-        <v>231</v>
-      </c>
-      <c r="K117" t="s">
-        <v>232</v>
-      </c>
-      <c r="L117" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" t="s">
-        <v>251</v>
-      </c>
-      <c r="C118">
-        <v>38206</v>
-      </c>
-      <c r="D118" t="s">
-        <v>218</v>
-      </c>
-      <c r="E118" t="s">
-        <v>522</v>
-      </c>
-      <c r="F118" s="3">
-        <v>41543</v>
-      </c>
-      <c r="G118" s="3"/>
-      <c r="H118" t="s">
-        <v>237</v>
-      </c>
-      <c r="I118" t="s">
-        <v>238</v>
-      </c>
-      <c r="J118" t="s">
-        <v>239</v>
-      </c>
-      <c r="K118" t="s">
-        <v>240</v>
-      </c>
-      <c r="L118" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>55</v>
-      </c>
-      <c r="B119" t="s">
-        <v>246</v>
-      </c>
-      <c r="C119">
-        <v>103346</v>
-      </c>
-      <c r="D119" t="s">
-        <v>215</v>
-      </c>
-      <c r="E119" t="s">
-        <v>525</v>
-      </c>
-      <c r="F119" s="3">
-        <v>34957</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" t="s">
-        <v>237</v>
-      </c>
-      <c r="I119" t="s">
-        <v>238</v>
-      </c>
-      <c r="J119" t="s">
-        <v>239</v>
-      </c>
-      <c r="K119" t="s">
-        <v>240</v>
-      </c>
-      <c r="L119" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>187</v>
-      </c>
-      <c r="B120" t="s">
-        <v>248</v>
-      </c>
-      <c r="C120">
-        <v>118941</v>
-      </c>
-      <c r="D120" t="s">
-        <v>217</v>
-      </c>
-      <c r="E120" t="s">
-        <v>523</v>
-      </c>
-      <c r="F120" s="3">
-        <v>38115</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" t="s">
-        <v>237</v>
-      </c>
-      <c r="I120" t="s">
-        <v>238</v>
-      </c>
-      <c r="J120" t="s">
-        <v>239</v>
-      </c>
-      <c r="K120" t="s">
-        <v>240</v>
-      </c>
-      <c r="L120" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>187</v>
-      </c>
-      <c r="B121" t="s">
-        <v>246</v>
-      </c>
-      <c r="C121">
-        <v>57887</v>
-      </c>
-      <c r="D121" t="s">
-        <v>215</v>
-      </c>
-      <c r="E121" t="s">
-        <v>525</v>
-      </c>
-      <c r="F121" s="3">
-        <v>37719</v>
-      </c>
-      <c r="G121" s="3">
-        <v>38114</v>
-      </c>
-      <c r="H121" t="s">
-        <v>237</v>
-      </c>
-      <c r="I121" t="s">
-        <v>238</v>
-      </c>
-      <c r="J121" t="s">
-        <v>239</v>
-      </c>
-      <c r="K121" t="s">
-        <v>240</v>
-      </c>
-      <c r="L121" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>35</v>
-      </c>
-      <c r="B122" t="s">
-        <v>248</v>
-      </c>
-      <c r="C122">
-        <v>134250</v>
-      </c>
-      <c r="D122" t="s">
-        <v>217</v>
-      </c>
-      <c r="E122" t="s">
-        <v>523</v>
-      </c>
-      <c r="F122" s="3">
-        <v>41992</v>
-      </c>
-      <c r="G122" s="3"/>
-      <c r="H122" t="s">
-        <v>241</v>
-      </c>
-      <c r="I122" t="s">
-        <v>242</v>
-      </c>
-      <c r="J122" t="s">
-        <v>243</v>
-      </c>
-      <c r="K122" t="s">
-        <v>244</v>
-      </c>
-      <c r="L122" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>67</v>
-      </c>
-      <c r="B123" t="s">
-        <v>248</v>
-      </c>
-      <c r="C123">
-        <v>83327</v>
-      </c>
-      <c r="D123" t="s">
-        <v>216</v>
-      </c>
-      <c r="E123" t="s">
-        <v>524</v>
-      </c>
-      <c r="F123" s="3">
-        <v>38976</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" t="s">
-        <v>229</v>
-      </c>
-      <c r="I123" t="s">
-        <v>230</v>
-      </c>
-      <c r="J123" t="s">
-        <v>231</v>
-      </c>
-      <c r="K123" t="s">
-        <v>232</v>
-      </c>
-      <c r="L123" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>167</v>
-      </c>
-      <c r="B124" t="s">
-        <v>245</v>
-      </c>
-      <c r="C124">
-        <v>167887</v>
-      </c>
-      <c r="D124" t="s">
-        <v>216</v>
-      </c>
-      <c r="E124" t="s">
-        <v>524</v>
-      </c>
-      <c r="F124" s="3">
-        <v>35770</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" t="s">
-        <v>229</v>
-      </c>
-      <c r="I124" t="s">
-        <v>230</v>
-      </c>
-      <c r="J124" t="s">
-        <v>231</v>
-      </c>
-      <c r="K124" t="s">
-        <v>232</v>
-      </c>
-      <c r="L124" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>7</v>
-      </c>
-      <c r="B125" t="s">
-        <v>246</v>
-      </c>
-      <c r="C125">
-        <v>123909</v>
-      </c>
-      <c r="D125" t="s">
-        <v>216</v>
-      </c>
-      <c r="E125" t="s">
-        <v>524</v>
-      </c>
-      <c r="F125" s="3">
-        <v>38140</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" t="s">
-        <v>237</v>
-      </c>
-      <c r="I125" t="s">
-        <v>238</v>
-      </c>
-      <c r="J125" t="s">
-        <v>239</v>
-      </c>
-      <c r="K125" t="s">
-        <v>240</v>
-      </c>
-      <c r="L125" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>37</v>
-      </c>
-      <c r="B126" t="s">
-        <v>250</v>
-      </c>
-      <c r="C126">
-        <v>111308</v>
-      </c>
-      <c r="D126" t="s">
-        <v>217</v>
-      </c>
-      <c r="E126" t="s">
-        <v>523</v>
-      </c>
-      <c r="F126" s="3">
-        <v>38512</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" t="s">
-        <v>237</v>
-      </c>
-      <c r="I126" t="s">
-        <v>238</v>
-      </c>
-      <c r="J126" t="s">
-        <v>239</v>
-      </c>
-      <c r="K126" t="s">
-        <v>240</v>
-      </c>
-      <c r="L126" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>66</v>
-      </c>
-      <c r="B127" t="s">
-        <v>248</v>
-      </c>
-      <c r="C127">
-        <v>153717</v>
-      </c>
-      <c r="D127" t="s">
-        <v>217</v>
-      </c>
-      <c r="E127" t="s">
-        <v>523</v>
-      </c>
-      <c r="F127" s="3">
-        <v>43596</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="H127" t="s">
-        <v>241</v>
-      </c>
-      <c r="I127" t="s">
-        <v>242</v>
-      </c>
-      <c r="J127" t="s">
-        <v>243</v>
-      </c>
-      <c r="K127" t="s">
-        <v>244</v>
-      </c>
-      <c r="L127" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>70</v>
-      </c>
-      <c r="B128" t="s">
-        <v>246</v>
-      </c>
-      <c r="C128">
-        <v>101957</v>
-      </c>
-      <c r="D128" t="s">
-        <v>215</v>
-      </c>
-      <c r="E128" t="s">
-        <v>525</v>
-      </c>
-      <c r="F128" s="3">
-        <v>39032</v>
-      </c>
-      <c r="G128" s="3"/>
-      <c r="H128" t="s">
-        <v>229</v>
-      </c>
-      <c r="I128" t="s">
-        <v>230</v>
-      </c>
-      <c r="J128" t="s">
-        <v>231</v>
-      </c>
-      <c r="K128" t="s">
-        <v>232</v>
-      </c>
-      <c r="L128" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>118</v>
-      </c>
-      <c r="B129" t="s">
-        <v>248</v>
-      </c>
-      <c r="C129">
-        <v>117958</v>
-      </c>
-      <c r="D129" t="s">
-        <v>217</v>
-      </c>
-      <c r="E129" t="s">
-        <v>523</v>
-      </c>
-      <c r="F129" s="3">
-        <v>40580</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="H129" t="s">
-        <v>214</v>
-      </c>
-      <c r="I129" t="s">
-        <v>253</v>
-      </c>
-      <c r="J129" t="s">
-        <v>227</v>
-      </c>
-      <c r="K129" t="s">
-        <v>228</v>
-      </c>
-      <c r="L129" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>118</v>
-      </c>
-      <c r="B130" t="s">
-        <v>251</v>
-      </c>
-      <c r="C130">
-        <v>32933</v>
-      </c>
-      <c r="D130" t="s">
-        <v>218</v>
-      </c>
-      <c r="E130" t="s">
-        <v>522</v>
-      </c>
-      <c r="F130" s="3">
-        <v>39135</v>
-      </c>
-      <c r="G130" s="3">
-        <v>40579</v>
-      </c>
-      <c r="H130" t="s">
-        <v>214</v>
-      </c>
-      <c r="I130" t="s">
-        <v>253</v>
-      </c>
-      <c r="J130" t="s">
-        <v>227</v>
-      </c>
-      <c r="K130" t="s">
-        <v>228</v>
-      </c>
-      <c r="L130" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>71</v>
-      </c>
-      <c r="B131" t="s">
-        <v>246</v>
-      </c>
-      <c r="C131">
-        <v>111114</v>
-      </c>
-      <c r="D131" t="s">
-        <v>216</v>
-      </c>
-      <c r="E131" t="s">
-        <v>524</v>
-      </c>
-      <c r="F131" s="3">
-        <v>38524</v>
-      </c>
-      <c r="G131" s="3"/>
-      <c r="H131" t="s">
-        <v>229</v>
-      </c>
-      <c r="I131" t="s">
-        <v>230</v>
-      </c>
-      <c r="J131" t="s">
-        <v>231</v>
-      </c>
-      <c r="K131" t="s">
-        <v>232</v>
-      </c>
-      <c r="L131" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>137</v>
-      </c>
-      <c r="B132" t="s">
-        <v>249</v>
-      </c>
-      <c r="C132">
-        <v>68127</v>
-      </c>
-      <c r="D132" t="s">
-        <v>217</v>
-      </c>
-      <c r="E132" t="s">
-        <v>523</v>
-      </c>
-      <c r="F132" s="3">
-        <v>43814</v>
-      </c>
-      <c r="G132" s="3"/>
-      <c r="H132" t="s">
-        <v>241</v>
-      </c>
-      <c r="I132" t="s">
-        <v>242</v>
-      </c>
-      <c r="J132" t="s">
-        <v>243</v>
-      </c>
-      <c r="K132" t="s">
-        <v>244</v>
-      </c>
-      <c r="L132" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>64</v>
-      </c>
-      <c r="B133" t="s">
-        <v>248</v>
-      </c>
-      <c r="C133">
-        <v>135656</v>
-      </c>
-      <c r="D133" t="s">
-        <v>217</v>
-      </c>
-      <c r="E133" t="s">
-        <v>523</v>
-      </c>
-      <c r="F133" s="3">
-        <v>39892</v>
-      </c>
-      <c r="G133" s="3"/>
-      <c r="H133" t="s">
-        <v>241</v>
-      </c>
-      <c r="I133" t="s">
-        <v>242</v>
-      </c>
-      <c r="J133" t="s">
-        <v>243</v>
-      </c>
-      <c r="K133" t="s">
-        <v>244</v>
-      </c>
-      <c r="L133" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>17</v>
-      </c>
-      <c r="B134" t="s">
-        <v>245</v>
-      </c>
-      <c r="C134">
-        <v>201404</v>
-      </c>
-      <c r="D134" t="s">
-        <v>218</v>
-      </c>
-      <c r="E134" t="s">
-        <v>522</v>
-      </c>
-      <c r="F134" s="3">
-        <v>41746</v>
-      </c>
-      <c r="G134" s="3"/>
-      <c r="H134" t="s">
-        <v>229</v>
-      </c>
-      <c r="I134" t="s">
-        <v>230</v>
-      </c>
-      <c r="J134" t="s">
-        <v>231</v>
-      </c>
-      <c r="K134" t="s">
-        <v>232</v>
-      </c>
-      <c r="L134" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>102</v>
-      </c>
-      <c r="B135" t="s">
-        <v>252</v>
-      </c>
-      <c r="C135">
-        <v>43778</v>
-      </c>
-      <c r="D135" t="s">
-        <v>218</v>
-      </c>
-      <c r="E135" t="s">
-        <v>522</v>
-      </c>
-      <c r="F135" s="3">
-        <v>41810</v>
-      </c>
-      <c r="G135" s="3"/>
-      <c r="H135" t="s">
-        <v>233</v>
-      </c>
-      <c r="I135" t="s">
-        <v>234</v>
-      </c>
-      <c r="J135" t="s">
-        <v>235</v>
-      </c>
-      <c r="K135" t="s">
-        <v>236</v>
-      </c>
-      <c r="L135" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>112</v>
-      </c>
-      <c r="B136" t="s">
-        <v>247</v>
-      </c>
-      <c r="C136">
-        <v>138695</v>
-      </c>
-      <c r="D136" t="s">
-        <v>216</v>
-      </c>
-      <c r="E136" t="s">
-        <v>524</v>
-      </c>
-      <c r="F136" s="3">
-        <v>40236</v>
-      </c>
-      <c r="G136" s="3"/>
-      <c r="H136" t="s">
-        <v>237</v>
-      </c>
-      <c r="I136" t="s">
-        <v>238</v>
-      </c>
-      <c r="J136" t="s">
-        <v>239</v>
-      </c>
-      <c r="K136" t="s">
-        <v>240</v>
-      </c>
-      <c r="L136" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>127</v>
-      </c>
-      <c r="B137" t="s">
-        <v>251</v>
-      </c>
-      <c r="C137">
-        <v>48680</v>
-      </c>
-      <c r="D137" t="s">
-        <v>218</v>
-      </c>
-      <c r="E137" t="s">
-        <v>522</v>
-      </c>
-      <c r="F137" s="3">
-        <v>42308</v>
-      </c>
-      <c r="G137" s="3"/>
-      <c r="H137" t="s">
-        <v>237</v>
-      </c>
-      <c r="I137" t="s">
-        <v>238</v>
-      </c>
-      <c r="J137" t="s">
-        <v>239</v>
-      </c>
-      <c r="K137" t="s">
-        <v>240</v>
-      </c>
-      <c r="L137" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>82</v>
-      </c>
-      <c r="B138" t="s">
-        <v>246</v>
-      </c>
-      <c r="C138">
-        <v>105960</v>
-      </c>
-      <c r="D138" t="s">
-        <v>215</v>
-      </c>
-      <c r="E138" t="s">
-        <v>525</v>
-      </c>
-      <c r="F138" s="3">
-        <v>41596</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="H138" t="s">
-        <v>233</v>
-      </c>
-      <c r="I138" t="s">
-        <v>234</v>
-      </c>
-      <c r="J138" t="s">
-        <v>235</v>
-      </c>
-      <c r="K138" t="s">
-        <v>236</v>
-      </c>
-      <c r="L138" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>179</v>
-      </c>
-      <c r="B139" t="s">
-        <v>252</v>
-      </c>
-      <c r="C139">
-        <v>48239</v>
-      </c>
-      <c r="D139" t="s">
-        <v>216</v>
-      </c>
-      <c r="E139" t="s">
-        <v>524</v>
-      </c>
-      <c r="F139" s="3">
-        <v>39271</v>
-      </c>
-      <c r="G139" s="3"/>
-      <c r="H139" t="s">
-        <v>214</v>
-      </c>
-      <c r="I139" t="s">
-        <v>253</v>
-      </c>
-      <c r="J139" t="s">
-        <v>227</v>
-      </c>
-      <c r="K139" t="s">
-        <v>228</v>
-      </c>
-      <c r="L139" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>153</v>
-      </c>
-      <c r="B140" t="s">
-        <v>246</v>
-      </c>
-      <c r="C140">
-        <v>86624</v>
-      </c>
-      <c r="D140" t="s">
-        <v>216</v>
-      </c>
-      <c r="E140" t="s">
-        <v>524</v>
-      </c>
-      <c r="F140" s="3">
-        <v>39287</v>
-      </c>
-      <c r="G140" s="3"/>
-      <c r="H140" t="s">
-        <v>241</v>
-      </c>
-      <c r="I140" t="s">
-        <v>242</v>
-      </c>
-      <c r="J140" t="s">
-        <v>243</v>
-      </c>
-      <c r="K140" t="s">
-        <v>244</v>
-      </c>
-      <c r="L140" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>58</v>
-      </c>
-      <c r="B141" t="s">
-        <v>246</v>
-      </c>
-      <c r="C141">
-        <v>96015</v>
-      </c>
-      <c r="D141" t="s">
-        <v>216</v>
-      </c>
-      <c r="E141" t="s">
-        <v>524</v>
-      </c>
-      <c r="F141" s="3">
-        <v>41412</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="H141" t="s">
-        <v>229</v>
-      </c>
-      <c r="I141" t="s">
-        <v>230</v>
-      </c>
-      <c r="J141" t="s">
-        <v>231</v>
-      </c>
-      <c r="K141" t="s">
-        <v>232</v>
-      </c>
-      <c r="L141" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>176</v>
-      </c>
-      <c r="B142" t="s">
-        <v>252</v>
-      </c>
-      <c r="C142">
-        <v>49786</v>
-      </c>
-      <c r="D142" t="s">
-        <v>216</v>
-      </c>
-      <c r="E142" t="s">
-        <v>524</v>
-      </c>
-      <c r="F142" s="3">
-        <v>42505</v>
-      </c>
-      <c r="G142" s="3"/>
-      <c r="H142" t="s">
-        <v>233</v>
-      </c>
-      <c r="I142" t="s">
-        <v>234</v>
-      </c>
-      <c r="J142" t="s">
-        <v>235</v>
-      </c>
-      <c r="K142" t="s">
-        <v>236</v>
-      </c>
-      <c r="L142" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>52</v>
-      </c>
-      <c r="B143" t="s">
-        <v>251</v>
-      </c>
-      <c r="C143">
-        <v>31349</v>
-      </c>
-      <c r="D143" t="s">
-        <v>218</v>
-      </c>
-      <c r="E143" t="s">
-        <v>522</v>
-      </c>
-      <c r="F143" s="3">
-        <v>41354</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" t="s">
-        <v>233</v>
-      </c>
-      <c r="I143" t="s">
-        <v>234</v>
-      </c>
-      <c r="J143" t="s">
-        <v>235</v>
-      </c>
-      <c r="K143" t="s">
-        <v>236</v>
-      </c>
-      <c r="L143" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>36</v>
-      </c>
-      <c r="B144" t="s">
-        <v>248</v>
-      </c>
-      <c r="C144">
-        <v>148313</v>
-      </c>
-      <c r="D144" t="s">
-        <v>216</v>
-      </c>
-      <c r="E144" t="s">
-        <v>524</v>
-      </c>
-      <c r="F144" s="3">
-        <v>42641</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="H144" t="s">
-        <v>214</v>
-      </c>
-      <c r="I144" t="s">
-        <v>253</v>
-      </c>
-      <c r="J144" t="s">
-        <v>227</v>
-      </c>
-      <c r="K144" t="s">
-        <v>228</v>
-      </c>
-      <c r="L144" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" t="s">
-        <v>246</v>
-      </c>
-      <c r="C145">
-        <v>123946</v>
-      </c>
-      <c r="D145" t="s">
-        <v>215</v>
-      </c>
-      <c r="E145" t="s">
-        <v>525</v>
-      </c>
-      <c r="F145" s="3">
-        <v>39313</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="H145" t="s">
-        <v>237</v>
-      </c>
-      <c r="I145" t="s">
-        <v>238</v>
-      </c>
-      <c r="J145" t="s">
-        <v>239</v>
-      </c>
-      <c r="K145" t="s">
-        <v>240</v>
-      </c>
-      <c r="L145" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>180</v>
-      </c>
-      <c r="B146" t="s">
-        <v>249</v>
-      </c>
-      <c r="C146">
-        <v>89618</v>
-      </c>
-      <c r="D146" t="s">
-        <v>217</v>
-      </c>
-      <c r="E146" t="s">
-        <v>523</v>
-      </c>
-      <c r="F146" s="3">
-        <v>41539</v>
-      </c>
-      <c r="G146" s="3"/>
-      <c r="H146" t="s">
-        <v>214</v>
-      </c>
-      <c r="I146" t="s">
-        <v>253</v>
-      </c>
-      <c r="J146" t="s">
-        <v>227</v>
-      </c>
-      <c r="K146" t="s">
-        <v>228</v>
-      </c>
-      <c r="L146" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>195</v>
-      </c>
-      <c r="B147" t="s">
-        <v>246</v>
-      </c>
-      <c r="C147">
-        <v>175296</v>
-      </c>
-      <c r="D147" t="s">
-        <v>215</v>
-      </c>
-      <c r="E147" t="s">
-        <v>525</v>
-      </c>
-      <c r="F147" s="3">
-        <v>43240</v>
-      </c>
-      <c r="G147" s="3"/>
-      <c r="H147" t="s">
-        <v>229</v>
-      </c>
-      <c r="I147" t="s">
-        <v>230</v>
-      </c>
-      <c r="J147" t="s">
-        <v>231</v>
-      </c>
-      <c r="K147" t="s">
-        <v>232</v>
-      </c>
-      <c r="L147" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>190</v>
-      </c>
-      <c r="B148" t="s">
-        <v>248</v>
-      </c>
-      <c r="C148">
-        <v>140024</v>
-      </c>
-      <c r="D148" t="s">
-        <v>217</v>
-      </c>
-      <c r="E148" t="s">
-        <v>523</v>
-      </c>
-      <c r="F148" s="3">
-        <v>39213</v>
-      </c>
-      <c r="G148" s="3"/>
-      <c r="H148" t="s">
-        <v>241</v>
-      </c>
-      <c r="I148" t="s">
-        <v>242</v>
-      </c>
-      <c r="J148" t="s">
-        <v>243</v>
-      </c>
-      <c r="K148" t="s">
-        <v>244</v>
-      </c>
-      <c r="L148" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>80</v>
-      </c>
-      <c r="B149" t="s">
-        <v>246</v>
-      </c>
-      <c r="C149">
-        <v>123476</v>
-      </c>
-      <c r="D149" t="s">
-        <v>215</v>
-      </c>
-      <c r="E149" t="s">
-        <v>525</v>
-      </c>
-      <c r="F149" s="3">
-        <v>39597</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" t="s">
-        <v>229</v>
-      </c>
-      <c r="I149" t="s">
-        <v>230</v>
-      </c>
-      <c r="J149" t="s">
-        <v>231</v>
-      </c>
-      <c r="K149" t="s">
-        <v>232</v>
-      </c>
-      <c r="L149" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>68</v>
-      </c>
-      <c r="B150" t="s">
-        <v>250</v>
-      </c>
-      <c r="C150">
-        <v>103370</v>
-      </c>
-      <c r="D150" t="s">
-        <v>217</v>
-      </c>
-      <c r="E150" t="s">
-        <v>523</v>
-      </c>
-      <c r="F150" s="3">
-        <v>41570</v>
-      </c>
-      <c r="G150" s="3"/>
-      <c r="H150" t="s">
-        <v>229</v>
-      </c>
-      <c r="I150" t="s">
-        <v>230</v>
-      </c>
-      <c r="J150" t="s">
-        <v>231</v>
-      </c>
-      <c r="K150" t="s">
-        <v>232</v>
-      </c>
-      <c r="L150" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>159</v>
-      </c>
-      <c r="B151" t="s">
-        <v>246</v>
-      </c>
-      <c r="C151">
-        <v>156344</v>
-      </c>
-      <c r="D151" t="s">
-        <v>216</v>
-      </c>
-      <c r="E151" t="s">
-        <v>524</v>
-      </c>
-      <c r="F151" s="3">
-        <v>38339</v>
-      </c>
-      <c r="G151" s="3"/>
-      <c r="H151" t="s">
-        <v>233</v>
-      </c>
-      <c r="I151" t="s">
-        <v>234</v>
-      </c>
-      <c r="J151" t="s">
-        <v>235</v>
-      </c>
-      <c r="K151" t="s">
-        <v>236</v>
-      </c>
-      <c r="L151" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>116</v>
-      </c>
-      <c r="B152" t="s">
-        <v>250</v>
-      </c>
-      <c r="C152">
-        <v>116831</v>
-      </c>
-      <c r="D152" t="s">
-        <v>217</v>
-      </c>
-      <c r="E152" t="s">
-        <v>523</v>
-      </c>
-      <c r="F152" s="3">
-        <v>40815</v>
-      </c>
-      <c r="G152" s="3"/>
-      <c r="H152" t="s">
-        <v>233</v>
-      </c>
-      <c r="I152" t="s">
-        <v>234</v>
-      </c>
-      <c r="J152" t="s">
-        <v>235</v>
-      </c>
-      <c r="K152" t="s">
-        <v>236</v>
-      </c>
-      <c r="L152" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>49</v>
-      </c>
-      <c r="B153" t="s">
-        <v>251</v>
-      </c>
-      <c r="C153">
-        <v>40083</v>
-      </c>
-      <c r="D153" t="s">
-        <v>218</v>
-      </c>
-      <c r="E153" t="s">
-        <v>522</v>
-      </c>
-      <c r="F153" s="3">
-        <v>36775</v>
-      </c>
-      <c r="G153" s="3"/>
-      <c r="H153" t="s">
-        <v>229</v>
-      </c>
-      <c r="I153" t="s">
-        <v>230</v>
-      </c>
-      <c r="J153" t="s">
-        <v>231</v>
-      </c>
-      <c r="K153" t="s">
-        <v>232</v>
-      </c>
-      <c r="L153" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>246</v>
-      </c>
-      <c r="C154">
-        <v>206383</v>
-      </c>
-      <c r="D154" t="s">
-        <v>215</v>
-      </c>
-      <c r="E154" t="s">
-        <v>525</v>
-      </c>
-      <c r="F154" s="3">
-        <v>40419</v>
-      </c>
-      <c r="G154" s="3"/>
-      <c r="H154" t="s">
-        <v>214</v>
-      </c>
-      <c r="I154" t="s">
-        <v>253</v>
-      </c>
-      <c r="J154" t="s">
-        <v>227</v>
-      </c>
-      <c r="K154" t="s">
-        <v>228</v>
-      </c>
-      <c r="L154" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>115</v>
-      </c>
-      <c r="B155" t="s">
-        <v>248</v>
-      </c>
-      <c r="C155">
-        <v>84143</v>
-      </c>
-      <c r="D155" t="s">
-        <v>216</v>
-      </c>
-      <c r="E155" t="s">
-        <v>524</v>
-      </c>
-      <c r="F155" s="3">
-        <v>41835</v>
-      </c>
-      <c r="G155" s="3"/>
-      <c r="H155" t="s">
-        <v>237</v>
-      </c>
-      <c r="I155" t="s">
-        <v>238</v>
-      </c>
-      <c r="J155" t="s">
-        <v>239</v>
-      </c>
-      <c r="K155" t="s">
-        <v>240</v>
-      </c>
-      <c r="L155" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>110</v>
-      </c>
-      <c r="B156" t="s">
-        <v>248</v>
-      </c>
-      <c r="C156">
-        <v>136509</v>
-      </c>
-      <c r="D156" t="s">
-        <v>216</v>
-      </c>
-      <c r="E156" t="s">
-        <v>524</v>
-      </c>
-      <c r="F156" s="3">
-        <v>40471</v>
-      </c>
-      <c r="G156" s="3"/>
-      <c r="H156" t="s">
-        <v>233</v>
-      </c>
-      <c r="I156" t="s">
-        <v>234</v>
-      </c>
-      <c r="J156" t="s">
-        <v>235</v>
-      </c>
-      <c r="K156" t="s">
-        <v>236</v>
-      </c>
-      <c r="L156" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>95</v>
-      </c>
-      <c r="B157" t="s">
-        <v>252</v>
-      </c>
-      <c r="C157">
-        <v>51052</v>
-      </c>
-      <c r="D157" t="s">
-        <v>217</v>
-      </c>
-      <c r="E157" t="s">
-        <v>523</v>
-      </c>
-      <c r="F157" s="3">
-        <v>43011</v>
-      </c>
-      <c r="G157" s="3"/>
-      <c r="H157" t="s">
-        <v>229</v>
-      </c>
-      <c r="I157" t="s">
-        <v>230</v>
-      </c>
-      <c r="J157" t="s">
-        <v>231</v>
-      </c>
-      <c r="K157" t="s">
-        <v>232</v>
-      </c>
-      <c r="L157" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>174</v>
-      </c>
-      <c r="B158" t="s">
-        <v>252</v>
-      </c>
-      <c r="C158">
-        <v>34084</v>
-      </c>
-      <c r="D158" t="s">
-        <v>214</v>
-      </c>
-      <c r="E158" t="s">
-        <v>547</v>
-      </c>
-      <c r="F158" s="3">
-        <v>43854</v>
-      </c>
-      <c r="G158" s="3"/>
-      <c r="H158" t="s">
-        <v>214</v>
-      </c>
-      <c r="I158" t="s">
-        <v>253</v>
-      </c>
-      <c r="J158" t="s">
-        <v>227</v>
-      </c>
-      <c r="K158" t="s">
-        <v>228</v>
-      </c>
-      <c r="L158" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>173</v>
-      </c>
-      <c r="B159" t="s">
-        <v>252</v>
-      </c>
-      <c r="C159">
-        <v>42313</v>
-      </c>
-      <c r="D159" t="s">
-        <v>214</v>
-      </c>
-      <c r="E159" t="s">
-        <v>547</v>
-      </c>
-      <c r="F159" s="3">
-        <v>42481</v>
-      </c>
-      <c r="G159" s="3"/>
-      <c r="H159" t="s">
-        <v>214</v>
-      </c>
-      <c r="I159" t="s">
-        <v>253</v>
-      </c>
-      <c r="J159" t="s">
-        <v>227</v>
-      </c>
-      <c r="K159" t="s">
-        <v>228</v>
-      </c>
-      <c r="L159" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>126</v>
-      </c>
-      <c r="B160" t="s">
-        <v>251</v>
-      </c>
-      <c r="C160">
-        <v>30081</v>
-      </c>
-      <c r="D160" t="s">
-        <v>218</v>
-      </c>
-      <c r="E160" t="s">
-        <v>522</v>
-      </c>
-      <c r="F160" s="3">
-        <v>41020</v>
-      </c>
-      <c r="G160" s="3"/>
-      <c r="H160" t="s">
-        <v>241</v>
-      </c>
-      <c r="I160" t="s">
-        <v>242</v>
-      </c>
-      <c r="J160" t="s">
-        <v>243</v>
-      </c>
-      <c r="K160" t="s">
-        <v>244</v>
-      </c>
-      <c r="L160" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>188</v>
-      </c>
-      <c r="B161" t="s">
-        <v>248</v>
-      </c>
-      <c r="C161">
-        <v>136384</v>
-      </c>
-      <c r="D161" t="s">
-        <v>216</v>
-      </c>
-      <c r="E161" t="s">
-        <v>524</v>
-      </c>
-      <c r="F161" s="3">
-        <v>40335</v>
-      </c>
-      <c r="G161" s="3"/>
-      <c r="H161" t="s">
-        <v>214</v>
-      </c>
-      <c r="I161" t="s">
-        <v>253</v>
-      </c>
-      <c r="J161" t="s">
-        <v>227</v>
-      </c>
-      <c r="K161" t="s">
-        <v>228</v>
-      </c>
-      <c r="L161" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>154</v>
-      </c>
-      <c r="B162" t="s">
-        <v>246</v>
-      </c>
-      <c r="C162">
-        <v>173887</v>
-      </c>
-      <c r="D162" t="s">
-        <v>215</v>
-      </c>
-      <c r="E162" t="s">
-        <v>525</v>
-      </c>
-      <c r="F162" s="3">
-        <v>39346</v>
-      </c>
-      <c r="G162" s="3"/>
-      <c r="H162" t="s">
-        <v>214</v>
-      </c>
-      <c r="I162" t="s">
-        <v>253</v>
-      </c>
-      <c r="J162" t="s">
-        <v>227</v>
-      </c>
-      <c r="K162" t="s">
-        <v>228</v>
-      </c>
-      <c r="L162" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>81</v>
-      </c>
-      <c r="B163" t="s">
-        <v>246</v>
-      </c>
-      <c r="C163">
-        <v>82192</v>
-      </c>
-      <c r="D163" t="s">
-        <v>216</v>
-      </c>
-      <c r="E163" t="s">
-        <v>524</v>
-      </c>
-      <c r="F163" s="3">
-        <v>36739</v>
-      </c>
-      <c r="G163" s="3"/>
-      <c r="H163" t="s">
-        <v>229</v>
-      </c>
-      <c r="I163" t="s">
-        <v>230</v>
-      </c>
-      <c r="J163" t="s">
-        <v>231</v>
-      </c>
-      <c r="K163" t="s">
-        <v>232</v>
-      </c>
-      <c r="L163" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>87</v>
-      </c>
-      <c r="B164" t="s">
-        <v>251</v>
-      </c>
-      <c r="C164">
-        <v>52933</v>
-      </c>
-      <c r="D164" t="s">
-        <v>218</v>
-      </c>
-      <c r="E164" t="s">
-        <v>522</v>
-      </c>
-      <c r="F164" s="3">
-        <v>42786</v>
-      </c>
-      <c r="G164" s="3"/>
-      <c r="H164" t="s">
-        <v>241</v>
-      </c>
-      <c r="I164" t="s">
-        <v>242</v>
-      </c>
-      <c r="J164" t="s">
-        <v>243</v>
-      </c>
-      <c r="K164" t="s">
-        <v>244</v>
-      </c>
-      <c r="L164" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>123</v>
-      </c>
-      <c r="B165" t="s">
-        <v>246</v>
-      </c>
-      <c r="C165">
-        <v>87887</v>
-      </c>
-      <c r="D165" t="s">
-        <v>215</v>
-      </c>
-      <c r="E165" t="s">
-        <v>525</v>
-      </c>
-      <c r="F165" s="3">
-        <v>40188</v>
-      </c>
-      <c r="G165" s="3"/>
-      <c r="H165" t="s">
-        <v>229</v>
-      </c>
-      <c r="I165" t="s">
-        <v>230</v>
-      </c>
-      <c r="J165" t="s">
-        <v>231</v>
-      </c>
-      <c r="K165" t="s">
-        <v>232</v>
-      </c>
-      <c r="L165" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>43</v>
-      </c>
-      <c r="B166" t="s">
-        <v>246</v>
-      </c>
-      <c r="C166">
-        <v>144637</v>
-      </c>
-      <c r="D166" t="s">
-        <v>215</v>
-      </c>
-      <c r="E166" t="s">
-        <v>525</v>
-      </c>
-      <c r="F166" s="3">
-        <v>41953</v>
-      </c>
-      <c r="G166" s="3"/>
-      <c r="H166" t="s">
-        <v>241</v>
-      </c>
-      <c r="I166" t="s">
-        <v>242</v>
-      </c>
-      <c r="J166" t="s">
-        <v>243</v>
-      </c>
-      <c r="K166" t="s">
-        <v>244</v>
-      </c>
-      <c r="L166" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>125</v>
-      </c>
-      <c r="B167" t="s">
-        <v>251</v>
-      </c>
-      <c r="C167">
-        <v>40806</v>
-      </c>
-      <c r="D167" t="s">
-        <v>218</v>
-      </c>
-      <c r="E167" t="s">
-        <v>522</v>
-      </c>
-      <c r="F167" s="3">
-        <v>35848</v>
-      </c>
-      <c r="G167" s="3"/>
-      <c r="H167" t="s">
-        <v>229</v>
-      </c>
-      <c r="I167" t="s">
-        <v>230</v>
-      </c>
-      <c r="J167" t="s">
-        <v>231</v>
-      </c>
-      <c r="K167" t="s">
-        <v>232</v>
-      </c>
-      <c r="L167" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>160</v>
-      </c>
-      <c r="B168" t="s">
-        <v>246</v>
-      </c>
-      <c r="C168">
-        <v>115719</v>
-      </c>
-      <c r="D168" t="s">
-        <v>215</v>
-      </c>
-      <c r="E168" t="s">
-        <v>525</v>
-      </c>
-      <c r="F168" s="3">
-        <v>38887</v>
-      </c>
-      <c r="G168" s="3"/>
-      <c r="H168" t="s">
-        <v>214</v>
-      </c>
-      <c r="I168" t="s">
-        <v>253</v>
-      </c>
-      <c r="J168" t="s">
-        <v>227</v>
-      </c>
-      <c r="K168" t="s">
-        <v>228</v>
-      </c>
-      <c r="L168" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>161</v>
-      </c>
-      <c r="B169" t="s">
-        <v>247</v>
-      </c>
-      <c r="C169">
-        <v>71982</v>
-      </c>
-      <c r="D169" t="s">
-        <v>216</v>
-      </c>
-      <c r="E169" t="s">
-        <v>524</v>
-      </c>
-      <c r="F169" s="3">
-        <v>37824</v>
-      </c>
-      <c r="G169" s="3"/>
-      <c r="H169" t="s">
-        <v>229</v>
-      </c>
-      <c r="I169" t="s">
-        <v>230</v>
-      </c>
-      <c r="J169" t="s">
-        <v>231</v>
-      </c>
-      <c r="K169" t="s">
-        <v>232</v>
-      </c>
-      <c r="L169" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>62</v>
-      </c>
-      <c r="B170" t="s">
-        <v>249</v>
-      </c>
-      <c r="C170">
-        <v>66952</v>
-      </c>
-      <c r="D170" t="s">
-        <v>216</v>
-      </c>
-      <c r="E170" t="s">
-        <v>524</v>
-      </c>
-      <c r="F170" s="3">
-        <v>43468</v>
-      </c>
-      <c r="G170" s="3"/>
-      <c r="H170" t="s">
-        <v>241</v>
-      </c>
-      <c r="I170" t="s">
-        <v>242</v>
-      </c>
-      <c r="J170" t="s">
-        <v>243</v>
-      </c>
-      <c r="K170" t="s">
-        <v>244</v>
-      </c>
-      <c r="L170" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>45</v>
-      </c>
-      <c r="B171" t="s">
-        <v>246</v>
-      </c>
-      <c r="C171">
-        <v>89696</v>
-      </c>
-      <c r="D171" t="s">
-        <v>215</v>
-      </c>
-      <c r="E171" t="s">
-        <v>525</v>
-      </c>
-      <c r="F171" s="3">
-        <v>38904</v>
-      </c>
-      <c r="G171" s="3"/>
-      <c r="H171" t="s">
-        <v>237</v>
-      </c>
-      <c r="I171" t="s">
-        <v>238</v>
-      </c>
-      <c r="J171" t="s">
-        <v>239</v>
-      </c>
-      <c r="K171" t="s">
-        <v>240</v>
-      </c>
-      <c r="L171" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>46</v>
-      </c>
-      <c r="B172" t="s">
-        <v>246</v>
-      </c>
-      <c r="C172">
-        <v>125439</v>
-      </c>
-      <c r="D172" t="s">
-        <v>216</v>
-      </c>
-      <c r="E172" t="s">
-        <v>524</v>
-      </c>
-      <c r="F172" s="3">
-        <v>39869</v>
-      </c>
-      <c r="G172" s="3"/>
-      <c r="H172" t="s">
-        <v>237</v>
-      </c>
-      <c r="I172" t="s">
-        <v>238</v>
-      </c>
-      <c r="J172" t="s">
-        <v>239</v>
-      </c>
-      <c r="K172" t="s">
-        <v>240</v>
-      </c>
-      <c r="L172" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>104</v>
-      </c>
-      <c r="B173" t="s">
-        <v>249</v>
-      </c>
-      <c r="C173">
-        <v>103714</v>
-      </c>
-      <c r="D173" t="s">
-        <v>217</v>
-      </c>
-      <c r="E173" t="s">
-        <v>523</v>
-      </c>
-      <c r="F173" s="3">
-        <v>39600</v>
-      </c>
-      <c r="G173" s="3"/>
-      <c r="H173" t="s">
-        <v>237</v>
-      </c>
-      <c r="I173" t="s">
-        <v>238</v>
-      </c>
-      <c r="J173" t="s">
-        <v>239</v>
-      </c>
-      <c r="K173" t="s">
-        <v>240</v>
-      </c>
-      <c r="L173" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>163</v>
-      </c>
-      <c r="B174" t="s">
-        <v>251</v>
-      </c>
-      <c r="C174">
-        <v>48749</v>
-      </c>
-      <c r="D174" t="s">
-        <v>218</v>
-      </c>
-      <c r="E174" t="s">
-        <v>522</v>
-      </c>
-      <c r="F174" s="3">
-        <v>35823</v>
-      </c>
-      <c r="G174" s="3"/>
-      <c r="H174" t="s">
-        <v>241</v>
-      </c>
-      <c r="I174" t="s">
-        <v>242</v>
-      </c>
-      <c r="J174" t="s">
-        <v>243</v>
-      </c>
-      <c r="K174" t="s">
-        <v>244</v>
-      </c>
-      <c r="L174" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>13</v>
-      </c>
-      <c r="B175" t="s">
-        <v>245</v>
-      </c>
-      <c r="C175">
-        <v>153296</v>
-      </c>
-      <c r="D175" t="s">
-        <v>214</v>
-      </c>
-      <c r="E175" t="s">
-        <v>547</v>
-      </c>
-      <c r="F175" s="3">
-        <v>36740</v>
-      </c>
-      <c r="G175" s="3"/>
-      <c r="H175" t="s">
-        <v>214</v>
-      </c>
-      <c r="I175" t="s">
-        <v>253</v>
-      </c>
-      <c r="J175" t="s">
-        <v>227</v>
-      </c>
-      <c r="K175" t="s">
-        <v>228</v>
-      </c>
-      <c r="L175" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>128</v>
-      </c>
-      <c r="B176" t="s">
-        <v>251</v>
-      </c>
-      <c r="C176">
-        <v>27811</v>
-      </c>
-      <c r="D176" t="s">
-        <v>218</v>
-      </c>
-      <c r="E176" t="s">
-        <v>522</v>
-      </c>
-      <c r="F176" s="3">
-        <v>42856</v>
-      </c>
-      <c r="G176" s="3"/>
-      <c r="H176" t="s">
-        <v>229</v>
-      </c>
-      <c r="I176" t="s">
-        <v>230</v>
-      </c>
-      <c r="J176" t="s">
-        <v>231</v>
-      </c>
-      <c r="K176" t="s">
-        <v>232</v>
-      </c>
-      <c r="L176" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>150</v>
-      </c>
-      <c r="B177" t="s">
-        <v>246</v>
-      </c>
-      <c r="C177">
-        <v>209418</v>
-      </c>
-      <c r="D177" t="s">
-        <v>215</v>
-      </c>
-      <c r="E177" t="s">
-        <v>525</v>
-      </c>
-      <c r="F177" s="3">
-        <v>39767</v>
-      </c>
-      <c r="G177" s="3"/>
-      <c r="H177" t="s">
-        <v>233</v>
-      </c>
-      <c r="I177" t="s">
-        <v>234</v>
-      </c>
-      <c r="J177" t="s">
-        <v>235</v>
-      </c>
-      <c r="K177" t="s">
-        <v>236</v>
-      </c>
-      <c r="L177" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>135</v>
-      </c>
-      <c r="B178" t="s">
-        <v>246</v>
-      </c>
-      <c r="C178">
-        <v>83535</v>
-      </c>
-      <c r="D178" t="s">
-        <v>215</v>
-      </c>
-      <c r="E178" t="s">
-        <v>525</v>
-      </c>
-      <c r="F178" s="3">
-        <v>35772</v>
-      </c>
-      <c r="G178" s="3"/>
-      <c r="H178" t="s">
-        <v>214</v>
-      </c>
-      <c r="I178" t="s">
-        <v>253</v>
-      </c>
-      <c r="J178" t="s">
-        <v>227</v>
-      </c>
-      <c r="K178" t="s">
-        <v>228</v>
-      </c>
-      <c r="L178" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>69</v>
-      </c>
-      <c r="B179" t="s">
-        <v>248</v>
-      </c>
-      <c r="C179">
-        <v>118125</v>
-      </c>
-      <c r="D179" t="s">
-        <v>217</v>
-      </c>
-      <c r="E179" t="s">
-        <v>523</v>
-      </c>
-      <c r="F179" s="3">
-        <v>41959</v>
-      </c>
-      <c r="G179" s="3"/>
-      <c r="H179" t="s">
-        <v>237</v>
-      </c>
-      <c r="I179" t="s">
-        <v>238</v>
-      </c>
-      <c r="J179" t="s">
-        <v>239</v>
-      </c>
-      <c r="K179" t="s">
-        <v>240</v>
-      </c>
-      <c r="L179" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>91</v>
-      </c>
-      <c r="B180" t="s">
-        <v>245</v>
-      </c>
-      <c r="C180">
-        <v>195992</v>
-      </c>
-      <c r="D180" t="s">
-        <v>216</v>
-      </c>
-      <c r="E180" t="s">
-        <v>524</v>
-      </c>
-      <c r="F180" s="3">
-        <v>41458</v>
-      </c>
-      <c r="G180" s="3"/>
-      <c r="H180" t="s">
-        <v>237</v>
-      </c>
-      <c r="I180" t="s">
-        <v>238</v>
-      </c>
-      <c r="J180" t="s">
-        <v>239</v>
-      </c>
-      <c r="K180" t="s">
-        <v>240</v>
-      </c>
-      <c r="L180" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>140</v>
-      </c>
-      <c r="B181" t="s">
-        <v>248</v>
-      </c>
-      <c r="C181">
-        <v>126529</v>
-      </c>
-      <c r="D181" t="s">
-        <v>217</v>
-      </c>
-      <c r="E181" t="s">
-        <v>523</v>
-      </c>
-      <c r="F181" s="3">
-        <v>36925</v>
-      </c>
-      <c r="G181" s="3"/>
-      <c r="H181" t="s">
-        <v>233</v>
-      </c>
-      <c r="I181" t="s">
-        <v>234</v>
-      </c>
-      <c r="J181" t="s">
-        <v>235</v>
-      </c>
-      <c r="K181" t="s">
-        <v>236</v>
-      </c>
-      <c r="L181" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>40</v>
-      </c>
-      <c r="B182" t="s">
-        <v>250</v>
-      </c>
-      <c r="C182">
-        <v>114582</v>
-      </c>
-      <c r="D182" t="s">
-        <v>217</v>
-      </c>
-      <c r="E182" t="s">
-        <v>523</v>
-      </c>
-      <c r="F182" s="3">
-        <v>43877</v>
-      </c>
-      <c r="G182" s="3"/>
-      <c r="H182" t="s">
-        <v>241</v>
-      </c>
-      <c r="I182" t="s">
-        <v>242</v>
-      </c>
-      <c r="J182" t="s">
-        <v>243</v>
-      </c>
-      <c r="K182" t="s">
-        <v>244</v>
-      </c>
-      <c r="L182" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>63</v>
-      </c>
-      <c r="B183" t="s">
-        <v>249</v>
-      </c>
-      <c r="C183">
-        <v>45412</v>
-      </c>
-      <c r="D183" t="s">
-        <v>217</v>
-      </c>
-      <c r="E183" t="s">
-        <v>523</v>
-      </c>
-      <c r="F183" s="3">
-        <v>42182</v>
-      </c>
-      <c r="G183" s="3"/>
-      <c r="H183" t="s">
-        <v>241</v>
-      </c>
-      <c r="I183" t="s">
-        <v>242</v>
-      </c>
-      <c r="J183" t="s">
-        <v>243</v>
-      </c>
-      <c r="K183" t="s">
-        <v>244</v>
-      </c>
-      <c r="L183" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>184</v>
-      </c>
-      <c r="B184" t="s">
-        <v>249</v>
-      </c>
-      <c r="C184">
-        <v>103110</v>
-      </c>
-      <c r="D184" t="s">
-        <v>217</v>
-      </c>
-      <c r="E184" t="s">
-        <v>523</v>
-      </c>
-      <c r="F184" s="3">
-        <v>35360</v>
-      </c>
-      <c r="G184" s="3"/>
-      <c r="H184" t="s">
-        <v>229</v>
-      </c>
-      <c r="I184" t="s">
-        <v>230</v>
-      </c>
-      <c r="J184" t="s">
-        <v>231</v>
-      </c>
-      <c r="K184" t="s">
-        <v>232</v>
-      </c>
-      <c r="L184" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>86</v>
-      </c>
-      <c r="B185" t="s">
-        <v>247</v>
-      </c>
-      <c r="C185">
-        <v>122334</v>
-      </c>
-      <c r="D185" t="s">
-        <v>217</v>
-      </c>
-      <c r="E185" t="s">
-        <v>523</v>
-      </c>
-      <c r="F185" s="3">
-        <v>40821</v>
-      </c>
-      <c r="G185" s="3"/>
-      <c r="H185" t="s">
-        <v>237</v>
-      </c>
-      <c r="I185" t="s">
-        <v>238</v>
-      </c>
-      <c r="J185" t="s">
-        <v>239</v>
-      </c>
-      <c r="K185" t="s">
-        <v>240</v>
-      </c>
-      <c r="L185" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>12</v>
-      </c>
-      <c r="B186" t="s">
-        <v>245</v>
-      </c>
-      <c r="C186">
-        <v>127669</v>
-      </c>
-      <c r="D186" t="s">
-        <v>214</v>
-      </c>
-      <c r="E186" t="s">
-        <v>547</v>
-      </c>
-      <c r="F186" s="3">
-        <v>43066</v>
-      </c>
-      <c r="G186" s="3"/>
-      <c r="H186" t="s">
-        <v>214</v>
-      </c>
-      <c r="I186" t="s">
-        <v>253</v>
-      </c>
-      <c r="J186" t="s">
-        <v>227</v>
-      </c>
-      <c r="K186" t="s">
-        <v>228</v>
-      </c>
-      <c r="L186" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>144</v>
-      </c>
-      <c r="B187" t="s">
-        <v>250</v>
-      </c>
-      <c r="C187">
-        <v>78206</v>
-      </c>
-      <c r="D187" t="s">
-        <v>217</v>
-      </c>
-      <c r="E187" t="s">
-        <v>523</v>
-      </c>
-      <c r="F187" s="3">
-        <v>37090</v>
-      </c>
-      <c r="G187" s="3"/>
-      <c r="H187" t="s">
-        <v>241</v>
-      </c>
-      <c r="I187" t="s">
-        <v>242</v>
-      </c>
-      <c r="J187" t="s">
-        <v>243</v>
-      </c>
-      <c r="K187" t="s">
-        <v>244</v>
-      </c>
-      <c r="L187" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>144</v>
-      </c>
-      <c r="B188" t="s">
-        <v>249</v>
-      </c>
-      <c r="C188">
-        <v>72341</v>
-      </c>
-      <c r="D188" t="s">
-        <v>217</v>
-      </c>
-      <c r="E188" t="s">
-        <v>523</v>
-      </c>
-      <c r="F188" s="3">
-        <v>34770</v>
-      </c>
-      <c r="G188" s="3">
-        <v>37089</v>
-      </c>
-      <c r="H188" t="s">
-        <v>241</v>
-      </c>
-      <c r="I188" t="s">
-        <v>242</v>
-      </c>
-      <c r="J188" t="s">
-        <v>243</v>
-      </c>
-      <c r="K188" t="s">
-        <v>244</v>
-      </c>
-      <c r="L188" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>175</v>
-      </c>
-      <c r="B189" t="s">
-        <v>252</v>
-      </c>
-      <c r="C189">
-        <v>31405</v>
-      </c>
-      <c r="D189" t="s">
-        <v>215</v>
-      </c>
-      <c r="E189" t="s">
-        <v>525</v>
-      </c>
-      <c r="F189" s="3">
-        <v>39840</v>
-      </c>
-      <c r="G189" s="3"/>
-      <c r="H189" t="s">
-        <v>214</v>
-      </c>
-      <c r="I189" t="s">
-        <v>253</v>
-      </c>
-      <c r="J189" t="s">
-        <v>227</v>
-      </c>
-      <c r="K189" t="s">
-        <v>228</v>
-      </c>
-      <c r="L189" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>14</v>
-      </c>
-      <c r="B190" t="s">
-        <v>245</v>
-      </c>
-      <c r="C190">
-        <v>183807</v>
-      </c>
-      <c r="D190" t="s">
-        <v>215</v>
-      </c>
-      <c r="E190" t="s">
-        <v>525</v>
-      </c>
-      <c r="F190" s="3">
-        <v>41477</v>
-      </c>
-      <c r="G190" s="3"/>
-      <c r="H190" t="s">
-        <v>229</v>
-      </c>
-      <c r="I190" t="s">
-        <v>230</v>
-      </c>
-      <c r="J190" t="s">
-        <v>231</v>
-      </c>
-      <c r="K190" t="s">
-        <v>232</v>
-      </c>
-      <c r="L190" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>196</v>
-      </c>
-      <c r="B191" t="s">
-        <v>246</v>
-      </c>
-      <c r="C191">
-        <v>88910</v>
-      </c>
-      <c r="D191" t="s">
-        <v>216</v>
-      </c>
-      <c r="E191" t="s">
-        <v>524</v>
-      </c>
-      <c r="F191" s="3">
-        <v>37376</v>
-      </c>
-      <c r="G191" s="3"/>
-      <c r="H191" t="s">
-        <v>214</v>
-      </c>
-      <c r="I191" t="s">
-        <v>253</v>
-      </c>
-      <c r="J191" t="s">
-        <v>227</v>
-      </c>
-      <c r="K191" t="s">
-        <v>228</v>
-      </c>
-      <c r="L191" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>73</v>
-      </c>
-      <c r="B192" t="s">
-        <v>246</v>
-      </c>
-      <c r="C192">
-        <v>174651</v>
-      </c>
-      <c r="D192" t="s">
-        <v>216</v>
-      </c>
-      <c r="E192" t="s">
-        <v>524</v>
-      </c>
-      <c r="F192" s="3">
-        <v>39753</v>
-      </c>
-      <c r="G192" s="3"/>
-      <c r="H192" t="s">
-        <v>233</v>
-      </c>
-      <c r="I192" t="s">
-        <v>234</v>
-      </c>
-      <c r="J192" t="s">
-        <v>235</v>
-      </c>
-      <c r="K192" t="s">
-        <v>236</v>
-      </c>
-      <c r="L192" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>197</v>
-      </c>
-      <c r="B193" t="s">
-        <v>246</v>
-      </c>
-      <c r="C193">
-        <v>100092</v>
-      </c>
-      <c r="D193" t="s">
-        <v>215</v>
-      </c>
-      <c r="E193" t="s">
-        <v>525</v>
-      </c>
-      <c r="F193" s="3">
-        <v>36333</v>
-      </c>
-      <c r="G193" s="3"/>
-      <c r="H193" t="s">
-        <v>214</v>
-      </c>
-      <c r="I193" t="s">
-        <v>253</v>
-      </c>
-      <c r="J193" t="s">
-        <v>227</v>
-      </c>
-      <c r="K193" t="s">
-        <v>228</v>
-      </c>
-      <c r="L193" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>1</v>
-      </c>
-      <c r="B194" t="s">
-        <v>226</v>
-      </c>
-      <c r="C194" s="1">
-        <v>540000</v>
-      </c>
-      <c r="D194" t="s">
-        <v>214</v>
-      </c>
-      <c r="E194" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F194" s="3">
-        <v>38967</v>
-      </c>
-      <c r="G194" s="3"/>
-      <c r="H194" t="s">
-        <v>214</v>
-      </c>
-      <c r="I194" t="s">
-        <v>253</v>
-      </c>
-      <c r="J194" t="s">
-        <v>227</v>
-      </c>
-      <c r="K194" t="s">
-        <v>228</v>
-      </c>
-      <c r="L194" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>143</v>
-      </c>
-      <c r="B195" t="s">
-        <v>248</v>
-      </c>
-      <c r="C195">
-        <v>122810</v>
-      </c>
-      <c r="D195" t="s">
-        <v>216</v>
-      </c>
-      <c r="E195" t="s">
-        <v>524</v>
-      </c>
-      <c r="F195" s="3">
-        <v>36571</v>
-      </c>
-      <c r="G195" s="3"/>
-      <c r="H195" t="s">
-        <v>237</v>
-      </c>
-      <c r="I195" t="s">
-        <v>238</v>
-      </c>
-      <c r="J195" t="s">
-        <v>239</v>
-      </c>
-      <c r="K195" t="s">
-        <v>240</v>
-      </c>
-      <c r="L195" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>149</v>
-      </c>
-      <c r="B196" t="s">
-        <v>246</v>
-      </c>
-      <c r="C196">
-        <v>125831</v>
-      </c>
-      <c r="D196" t="s">
-        <v>216</v>
-      </c>
-      <c r="E196" t="s">
-        <v>524</v>
-      </c>
-      <c r="F196" s="3">
-        <v>36390</v>
-      </c>
-      <c r="G196" s="3"/>
-      <c r="H196" t="s">
-        <v>229</v>
-      </c>
-      <c r="I196" t="s">
-        <v>230</v>
-      </c>
-      <c r="J196" t="s">
-        <v>231</v>
-      </c>
-      <c r="K196" t="s">
-        <v>232</v>
-      </c>
-      <c r="L196" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>117</v>
-      </c>
-      <c r="B197" t="s">
-        <v>247</v>
-      </c>
-      <c r="C197">
-        <v>144623</v>
-      </c>
-      <c r="D197" t="s">
-        <v>216</v>
-      </c>
-      <c r="E197" t="s">
-        <v>524</v>
-      </c>
-      <c r="F197" s="3">
-        <v>43088</v>
-      </c>
-      <c r="G197" s="3"/>
-      <c r="H197" t="s">
-        <v>229</v>
-      </c>
-      <c r="I197" t="s">
-        <v>230</v>
-      </c>
-      <c r="J197" t="s">
-        <v>231</v>
-      </c>
-      <c r="K197" t="s">
-        <v>232</v>
-      </c>
-      <c r="L197" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>26</v>
-      </c>
-      <c r="B198" t="s">
-        <v>252</v>
-      </c>
-      <c r="C198">
-        <v>28969</v>
-      </c>
-      <c r="D198" t="s">
-        <v>218</v>
-      </c>
-      <c r="E198" t="s">
-        <v>522</v>
-      </c>
-      <c r="F198" s="3">
-        <v>41605</v>
-      </c>
-      <c r="G198" s="3"/>
-      <c r="H198" t="s">
-        <v>233</v>
-      </c>
-      <c r="I198" t="s">
-        <v>234</v>
-      </c>
-      <c r="J198" t="s">
-        <v>235</v>
-      </c>
-      <c r="K198" t="s">
-        <v>236</v>
-      </c>
-      <c r="L198" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>148</v>
-      </c>
-      <c r="B199" t="s">
-        <v>246</v>
-      </c>
-      <c r="C199">
-        <v>175879</v>
-      </c>
-      <c r="D199" t="s">
-        <v>215</v>
-      </c>
-      <c r="E199" t="s">
-        <v>525</v>
-      </c>
-      <c r="F199" s="3">
-        <v>40492</v>
-      </c>
-      <c r="G199" s="3"/>
-      <c r="H199" t="s">
-        <v>237</v>
-      </c>
-      <c r="I199" t="s">
-        <v>238</v>
-      </c>
-      <c r="J199" t="s">
-        <v>239</v>
-      </c>
-      <c r="K199" t="s">
-        <v>240</v>
-      </c>
-      <c r="L199" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>19</v>
-      </c>
-      <c r="B200" t="s">
-        <v>252</v>
-      </c>
-      <c r="C200">
-        <v>50043</v>
-      </c>
-      <c r="D200" t="s">
-        <v>217</v>
-      </c>
-      <c r="E200" t="s">
-        <v>523</v>
-      </c>
-      <c r="F200" s="3">
-        <v>38498</v>
-      </c>
-      <c r="G200" s="3"/>
-      <c r="H200" t="s">
-        <v>214</v>
-      </c>
-      <c r="I200" t="s">
-        <v>253</v>
-      </c>
-      <c r="J200" t="s">
-        <v>227</v>
-      </c>
-      <c r="K200" t="s">
-        <v>228</v>
-      </c>
-      <c r="L200" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>124</v>
-      </c>
-      <c r="B201" t="s">
-        <v>246</v>
-      </c>
-      <c r="C201">
-        <v>130161</v>
-      </c>
-      <c r="D201" t="s">
-        <v>216</v>
-      </c>
-      <c r="E201" t="s">
-        <v>524</v>
-      </c>
-      <c r="F201" s="3">
-        <v>36950</v>
-      </c>
-      <c r="G201" s="3"/>
-      <c r="H201" t="s">
-        <v>214</v>
-      </c>
-      <c r="I201" t="s">
-        <v>253</v>
-      </c>
-      <c r="J201" t="s">
-        <v>227</v>
-      </c>
-      <c r="K201" t="s">
-        <v>228</v>
-      </c>
-      <c r="L201" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>78</v>
-      </c>
-      <c r="B202" t="s">
-        <v>246</v>
-      </c>
-      <c r="C202">
-        <v>158549</v>
-      </c>
-      <c r="D202" t="s">
-        <v>215</v>
-      </c>
-      <c r="E202" t="s">
-        <v>525</v>
-      </c>
-      <c r="F202" s="3">
-        <v>42675</v>
-      </c>
-      <c r="G202" s="3"/>
-      <c r="H202" t="s">
-        <v>229</v>
-      </c>
-      <c r="I202" t="s">
-        <v>230</v>
-      </c>
-      <c r="J202" t="s">
-        <v>231</v>
-      </c>
-      <c r="K202" t="s">
-        <v>232</v>
-      </c>
-      <c r="L202" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>122</v>
-      </c>
-      <c r="B203" t="s">
-        <v>246</v>
-      </c>
-      <c r="C203">
-        <v>146429</v>
-      </c>
-      <c r="D203" t="s">
-        <v>216</v>
-      </c>
-      <c r="E203" t="s">
-        <v>524</v>
-      </c>
-      <c r="F203" s="3">
-        <v>39084</v>
-      </c>
-      <c r="G203" s="3"/>
-      <c r="H203" t="s">
-        <v>229</v>
-      </c>
-      <c r="I203" t="s">
-        <v>230</v>
-      </c>
-      <c r="J203" t="s">
-        <v>231</v>
-      </c>
-      <c r="K203" t="s">
-        <v>232</v>
-      </c>
-      <c r="L203" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>89</v>
-      </c>
-      <c r="B204" t="s">
-        <v>245</v>
-      </c>
-      <c r="C204">
-        <v>144638</v>
-      </c>
-      <c r="D204" t="s">
-        <v>214</v>
-      </c>
-      <c r="E204" t="s">
-        <v>547</v>
-      </c>
-      <c r="F204" s="3">
-        <v>41965</v>
-      </c>
-      <c r="G204" s="3"/>
-      <c r="H204" t="s">
-        <v>214</v>
-      </c>
-      <c r="I204" t="s">
-        <v>253</v>
-      </c>
-      <c r="J204" t="s">
-        <v>227</v>
-      </c>
-      <c r="K204" t="s">
-        <v>228</v>
-      </c>
-      <c r="L204" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>121</v>
-      </c>
-      <c r="B205" t="s">
-        <v>246</v>
-      </c>
-      <c r="C205">
-        <v>157172</v>
-      </c>
-      <c r="D205" t="s">
-        <v>215</v>
-      </c>
-      <c r="E205" t="s">
-        <v>525</v>
-      </c>
-      <c r="F205" s="3">
-        <v>41246</v>
-      </c>
-      <c r="G205" s="3"/>
-      <c r="H205" t="s">
-        <v>214</v>
-      </c>
-      <c r="I205" t="s">
-        <v>253</v>
-      </c>
-      <c r="J205" t="s">
-        <v>227</v>
-      </c>
-      <c r="K205" t="s">
-        <v>228</v>
-      </c>
-      <c r="L205" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>32</v>
-      </c>
-      <c r="B206" t="s">
-        <v>249</v>
-      </c>
-      <c r="C206">
-        <v>98994</v>
-      </c>
-      <c r="D206" t="s">
-        <v>217</v>
-      </c>
-      <c r="E206" t="s">
-        <v>523</v>
-      </c>
-      <c r="F206" s="3">
-        <v>35495</v>
-      </c>
-      <c r="G206" s="3"/>
-      <c r="H206" t="s">
-        <v>237</v>
-      </c>
-      <c r="I206" t="s">
-        <v>238</v>
-      </c>
-      <c r="J206" t="s">
-        <v>239</v>
-      </c>
-      <c r="K206" t="s">
-        <v>240</v>
-      </c>
-      <c r="L206" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D9AB68-9DFB-344A-82C0-A6CAD4BE8977}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="72" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>697</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>701</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBB2801-2F21-B44F-B08C-80741ECC5976}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>